--- a/Yuvaraj/Timesheet/Schwall_TraineeName_Timesheet_June_2021.xlsx
+++ b/Yuvaraj/Timesheet/Schwall_TraineeName_Timesheet_June_2021.xlsx
@@ -1,10 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24026"/>
+  <workbookPr filterPrivacy="1"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{C7912986-342E-4750-8C47-2A4566C607A0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12650"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Week1" sheetId="1" r:id="rId1"/>
@@ -20,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="19">
   <si>
     <t>SlNo</t>
   </si>
@@ -39,11 +40,50 @@
   <si>
     <t>SCHWALL WEEKLY TIMESHEET</t>
   </si>
+  <si>
+    <t>ArrayList Program</t>
+  </si>
+  <si>
+    <t>Training</t>
+  </si>
+  <si>
+    <t>Practice</t>
+  </si>
+  <si>
+    <t>Insert,delete,Search student datas by using arraylist</t>
+  </si>
+  <si>
+    <t>Had training for BPM overview</t>
+  </si>
+  <si>
+    <t>BPM Overview</t>
+  </si>
+  <si>
+    <t>BPMN diagramDrawing BPMN flow diagram by using camunda moduler</t>
+  </si>
+  <si>
+    <t>java session</t>
+  </si>
+  <si>
+    <t>Practice collections topics which learned on training session</t>
+  </si>
+  <si>
+    <t>2.5 hr</t>
+  </si>
+  <si>
+    <t>1 hr</t>
+  </si>
+  <si>
+    <t>1.5 hr</t>
+  </si>
+  <si>
+    <t>4 hr</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -236,7 +276,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
@@ -256,6 +296,7 @@
     <xf numFmtId="0" fontId="2" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -535,23 +576,23 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B1:F145"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
+      <selection activeCell="F13" sqref="F13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="3" max="3" width="11.453125" customWidth="1"/>
-    <col min="4" max="4" width="12.81640625" customWidth="1"/>
-    <col min="5" max="5" width="44.90625" customWidth="1"/>
-    <col min="6" max="6" width="30.81640625" customWidth="1"/>
+    <col min="3" max="3" width="11.42578125" customWidth="1"/>
+    <col min="4" max="4" width="12.85546875" customWidth="1"/>
+    <col min="5" max="5" width="44.85546875" customWidth="1"/>
+    <col min="6" max="6" width="30.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:6" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
-    <row r="2" spans="2:6" ht="21" x14ac:dyDescent="0.5">
+    <row r="1" spans="2:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="2" spans="2:6" ht="21" x14ac:dyDescent="0.35">
       <c r="B2" s="10" t="s">
         <v>5</v>
       </c>
@@ -560,7 +601,7 @@
       <c r="E2" s="11"/>
       <c r="F2" s="12"/>
     </row>
-    <row r="3" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="3" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B3" s="7" t="s">
         <v>0</v>
       </c>
@@ -577,994 +618,1026 @@
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="2:6" x14ac:dyDescent="0.35">
-      <c r="B4" s="2"/>
-      <c r="C4" s="1"/>
-      <c r="D4" s="1"/>
-      <c r="E4" s="1"/>
-      <c r="F4" s="3"/>
-    </row>
-    <row r="5" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="4" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B4" s="2">
+        <v>1</v>
+      </c>
+      <c r="C4" s="13">
+        <v>44351</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="F4" s="3" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="5" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B5" s="2"/>
       <c r="C5" s="1"/>
-      <c r="D5" s="1"/>
+      <c r="D5" s="1" t="s">
+        <v>12</v>
+      </c>
       <c r="E5" s="1"/>
-      <c r="F5" s="3"/>
-    </row>
-    <row r="6" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="F5" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="6" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B6" s="2"/>
       <c r="C6" s="1"/>
-      <c r="D6" s="1"/>
-      <c r="E6" s="1"/>
-      <c r="F6" s="3"/>
-    </row>
-    <row r="7" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="D6" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F6" s="3" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="7" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B7" s="2"/>
       <c r="C7" s="1"/>
-      <c r="D7" s="1"/>
-      <c r="E7" s="1"/>
-      <c r="F7" s="3"/>
-    </row>
-    <row r="8" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="D7" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F7" s="3" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="8" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B8" s="2"/>
       <c r="C8" s="1"/>
-      <c r="D8" s="1"/>
-      <c r="E8" s="1"/>
-      <c r="F8" s="3"/>
-    </row>
-    <row r="9" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="D8" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F8" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="9" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B9" s="2"/>
       <c r="C9" s="1"/>
       <c r="D9" s="1"/>
       <c r="E9" s="1"/>
       <c r="F9" s="3"/>
     </row>
-    <row r="10" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="10" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B10" s="2"/>
       <c r="C10" s="1"/>
       <c r="D10" s="1"/>
       <c r="E10" s="1"/>
       <c r="F10" s="3"/>
     </row>
-    <row r="11" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="11" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B11" s="2"/>
       <c r="C11" s="1"/>
       <c r="D11" s="1"/>
       <c r="E11" s="1"/>
       <c r="F11" s="3"/>
     </row>
-    <row r="12" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="12" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B12" s="2"/>
       <c r="C12" s="1"/>
       <c r="D12" s="1"/>
       <c r="E12" s="1"/>
       <c r="F12" s="3"/>
     </row>
-    <row r="13" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="13" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B13" s="2"/>
       <c r="C13" s="1"/>
       <c r="D13" s="1"/>
       <c r="E13" s="1"/>
       <c r="F13" s="3"/>
     </row>
-    <row r="14" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="14" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B14" s="2"/>
       <c r="C14" s="1"/>
       <c r="D14" s="1"/>
       <c r="E14" s="1"/>
       <c r="F14" s="3"/>
     </row>
-    <row r="15" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="15" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B15" s="2"/>
       <c r="C15" s="1"/>
       <c r="D15" s="1"/>
       <c r="E15" s="1"/>
       <c r="F15" s="3"/>
     </row>
-    <row r="16" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="16" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B16" s="2"/>
       <c r="C16" s="1"/>
       <c r="D16" s="1"/>
       <c r="E16" s="1"/>
       <c r="F16" s="3"/>
     </row>
-    <row r="17" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="17" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B17" s="2"/>
       <c r="C17" s="1"/>
       <c r="D17" s="1"/>
       <c r="E17" s="1"/>
       <c r="F17" s="3"/>
     </row>
-    <row r="18" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="18" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B18" s="2"/>
       <c r="C18" s="1"/>
       <c r="D18" s="1"/>
       <c r="E18" s="1"/>
       <c r="F18" s="3"/>
     </row>
-    <row r="19" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="19" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B19" s="2"/>
       <c r="C19" s="1"/>
       <c r="D19" s="1"/>
       <c r="E19" s="1"/>
       <c r="F19" s="3"/>
     </row>
-    <row r="20" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="20" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B20" s="2"/>
       <c r="C20" s="1"/>
       <c r="D20" s="1"/>
       <c r="E20" s="1"/>
       <c r="F20" s="3"/>
     </row>
-    <row r="21" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="21" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B21" s="2"/>
       <c r="C21" s="1"/>
       <c r="D21" s="1"/>
       <c r="E21" s="1"/>
       <c r="F21" s="3"/>
     </row>
-    <row r="22" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="22" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B22" s="2"/>
       <c r="C22" s="1"/>
       <c r="D22" s="1"/>
       <c r="E22" s="1"/>
       <c r="F22" s="3"/>
     </row>
-    <row r="23" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="23" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B23" s="2"/>
       <c r="C23" s="1"/>
       <c r="D23" s="1"/>
       <c r="E23" s="1"/>
       <c r="F23" s="3"/>
     </row>
-    <row r="24" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="24" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B24" s="2"/>
       <c r="C24" s="1"/>
       <c r="D24" s="1"/>
       <c r="E24" s="1"/>
       <c r="F24" s="3"/>
     </row>
-    <row r="25" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="25" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B25" s="2"/>
       <c r="C25" s="1"/>
       <c r="D25" s="1"/>
       <c r="E25" s="1"/>
       <c r="F25" s="3"/>
     </row>
-    <row r="26" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="26" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B26" s="2"/>
       <c r="C26" s="1"/>
       <c r="D26" s="1"/>
       <c r="E26" s="1"/>
       <c r="F26" s="3"/>
     </row>
-    <row r="27" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="27" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B27" s="2"/>
       <c r="C27" s="1"/>
       <c r="D27" s="1"/>
       <c r="E27" s="1"/>
       <c r="F27" s="3"/>
     </row>
-    <row r="28" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="28" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B28" s="2"/>
       <c r="C28" s="1"/>
       <c r="D28" s="1"/>
       <c r="E28" s="1"/>
       <c r="F28" s="3"/>
     </row>
-    <row r="29" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="29" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B29" s="2"/>
       <c r="C29" s="1"/>
       <c r="D29" s="1"/>
       <c r="E29" s="1"/>
       <c r="F29" s="3"/>
     </row>
-    <row r="30" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="30" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B30" s="2"/>
       <c r="C30" s="1"/>
       <c r="D30" s="1"/>
       <c r="E30" s="1"/>
       <c r="F30" s="3"/>
     </row>
-    <row r="31" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="31" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B31" s="2"/>
       <c r="C31" s="1"/>
       <c r="D31" s="1"/>
       <c r="E31" s="1"/>
       <c r="F31" s="3"/>
     </row>
-    <row r="32" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="32" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B32" s="2"/>
       <c r="C32" s="1"/>
       <c r="D32" s="1"/>
       <c r="E32" s="1"/>
       <c r="F32" s="3"/>
     </row>
-    <row r="33" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="33" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B33" s="2"/>
       <c r="C33" s="1"/>
       <c r="D33" s="1"/>
       <c r="E33" s="1"/>
       <c r="F33" s="3"/>
     </row>
-    <row r="34" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="34" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B34" s="2"/>
       <c r="C34" s="1"/>
       <c r="D34" s="1"/>
       <c r="E34" s="1"/>
       <c r="F34" s="3"/>
     </row>
-    <row r="35" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="35" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B35" s="2"/>
       <c r="C35" s="1"/>
       <c r="D35" s="1"/>
       <c r="E35" s="1"/>
       <c r="F35" s="3"/>
     </row>
-    <row r="36" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="36" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B36" s="2"/>
       <c r="C36" s="1"/>
       <c r="D36" s="1"/>
       <c r="E36" s="1"/>
       <c r="F36" s="3"/>
     </row>
-    <row r="37" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="37" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B37" s="2"/>
       <c r="C37" s="1"/>
       <c r="D37" s="1"/>
       <c r="E37" s="1"/>
       <c r="F37" s="3"/>
     </row>
-    <row r="38" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="38" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B38" s="2"/>
       <c r="C38" s="1"/>
       <c r="D38" s="1"/>
       <c r="E38" s="1"/>
       <c r="F38" s="3"/>
     </row>
-    <row r="39" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="39" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B39" s="2"/>
       <c r="C39" s="1"/>
       <c r="D39" s="1"/>
       <c r="E39" s="1"/>
       <c r="F39" s="3"/>
     </row>
-    <row r="40" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="40" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B40" s="2"/>
       <c r="C40" s="1"/>
       <c r="D40" s="1"/>
       <c r="E40" s="1"/>
       <c r="F40" s="3"/>
     </row>
-    <row r="41" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="41" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B41" s="2"/>
       <c r="C41" s="1"/>
       <c r="D41" s="1"/>
       <c r="E41" s="1"/>
       <c r="F41" s="3"/>
     </row>
-    <row r="42" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="42" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B42" s="2"/>
       <c r="C42" s="1"/>
       <c r="D42" s="1"/>
       <c r="E42" s="1"/>
       <c r="F42" s="3"/>
     </row>
-    <row r="43" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="43" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B43" s="2"/>
       <c r="C43" s="1"/>
       <c r="D43" s="1"/>
       <c r="E43" s="1"/>
       <c r="F43" s="3"/>
     </row>
-    <row r="44" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="44" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B44" s="2"/>
       <c r="C44" s="1"/>
       <c r="D44" s="1"/>
       <c r="E44" s="1"/>
       <c r="F44" s="3"/>
     </row>
-    <row r="45" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="45" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B45" s="2"/>
       <c r="C45" s="1"/>
       <c r="D45" s="1"/>
       <c r="E45" s="1"/>
       <c r="F45" s="3"/>
     </row>
-    <row r="46" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="46" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B46" s="2"/>
       <c r="C46" s="1"/>
       <c r="D46" s="1"/>
       <c r="E46" s="1"/>
       <c r="F46" s="3"/>
     </row>
-    <row r="47" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="47" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B47" s="2"/>
       <c r="C47" s="1"/>
       <c r="D47" s="1"/>
       <c r="E47" s="1"/>
       <c r="F47" s="3"/>
     </row>
-    <row r="48" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="48" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B48" s="2"/>
       <c r="C48" s="1"/>
       <c r="D48" s="1"/>
       <c r="E48" s="1"/>
       <c r="F48" s="3"/>
     </row>
-    <row r="49" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="49" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B49" s="2"/>
       <c r="C49" s="1"/>
       <c r="D49" s="1"/>
       <c r="E49" s="1"/>
       <c r="F49" s="3"/>
     </row>
-    <row r="50" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="50" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B50" s="2"/>
       <c r="C50" s="1"/>
       <c r="D50" s="1"/>
       <c r="E50" s="1"/>
       <c r="F50" s="3"/>
     </row>
-    <row r="51" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="51" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B51" s="2"/>
       <c r="C51" s="1"/>
       <c r="D51" s="1"/>
       <c r="E51" s="1"/>
       <c r="F51" s="3"/>
     </row>
-    <row r="52" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="52" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B52" s="2"/>
       <c r="C52" s="1"/>
       <c r="D52" s="1"/>
       <c r="E52" s="1"/>
       <c r="F52" s="3"/>
     </row>
-    <row r="53" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="53" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B53" s="2"/>
       <c r="C53" s="1"/>
       <c r="D53" s="1"/>
       <c r="E53" s="1"/>
       <c r="F53" s="3"/>
     </row>
-    <row r="54" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="54" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B54" s="2"/>
       <c r="C54" s="1"/>
       <c r="D54" s="1"/>
       <c r="E54" s="1"/>
       <c r="F54" s="3"/>
     </row>
-    <row r="55" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="55" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B55" s="2"/>
       <c r="C55" s="1"/>
       <c r="D55" s="1"/>
       <c r="E55" s="1"/>
       <c r="F55" s="3"/>
     </row>
-    <row r="56" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="56" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B56" s="2"/>
       <c r="C56" s="1"/>
       <c r="D56" s="1"/>
       <c r="E56" s="1"/>
       <c r="F56" s="3"/>
     </row>
-    <row r="57" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="57" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B57" s="2"/>
       <c r="C57" s="1"/>
       <c r="D57" s="1"/>
       <c r="E57" s="1"/>
       <c r="F57" s="3"/>
     </row>
-    <row r="58" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="58" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B58" s="2"/>
       <c r="C58" s="1"/>
       <c r="D58" s="1"/>
       <c r="E58" s="1"/>
       <c r="F58" s="3"/>
     </row>
-    <row r="59" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="59" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B59" s="2"/>
       <c r="C59" s="1"/>
       <c r="D59" s="1"/>
       <c r="E59" s="1"/>
       <c r="F59" s="3"/>
     </row>
-    <row r="60" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="60" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B60" s="2"/>
       <c r="C60" s="1"/>
       <c r="D60" s="1"/>
       <c r="E60" s="1"/>
       <c r="F60" s="3"/>
     </row>
-    <row r="61" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="61" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B61" s="2"/>
       <c r="C61" s="1"/>
       <c r="D61" s="1"/>
       <c r="E61" s="1"/>
       <c r="F61" s="3"/>
     </row>
-    <row r="62" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="62" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B62" s="2"/>
       <c r="C62" s="1"/>
       <c r="D62" s="1"/>
       <c r="E62" s="1"/>
       <c r="F62" s="3"/>
     </row>
-    <row r="63" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="63" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B63" s="2"/>
       <c r="C63" s="1"/>
       <c r="D63" s="1"/>
       <c r="E63" s="1"/>
       <c r="F63" s="3"/>
     </row>
-    <row r="64" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="64" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B64" s="2"/>
       <c r="C64" s="1"/>
       <c r="D64" s="1"/>
       <c r="E64" s="1"/>
       <c r="F64" s="3"/>
     </row>
-    <row r="65" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="65" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B65" s="2"/>
       <c r="C65" s="1"/>
       <c r="D65" s="1"/>
       <c r="E65" s="1"/>
       <c r="F65" s="3"/>
     </row>
-    <row r="66" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="66" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B66" s="2"/>
       <c r="C66" s="1"/>
       <c r="D66" s="1"/>
       <c r="E66" s="1"/>
       <c r="F66" s="3"/>
     </row>
-    <row r="67" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="67" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B67" s="2"/>
       <c r="C67" s="1"/>
       <c r="D67" s="1"/>
       <c r="E67" s="1"/>
       <c r="F67" s="3"/>
     </row>
-    <row r="68" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="68" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B68" s="2"/>
       <c r="C68" s="1"/>
       <c r="D68" s="1"/>
       <c r="E68" s="1"/>
       <c r="F68" s="3"/>
     </row>
-    <row r="69" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="69" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B69" s="2"/>
       <c r="C69" s="1"/>
       <c r="D69" s="1"/>
       <c r="E69" s="1"/>
       <c r="F69" s="3"/>
     </row>
-    <row r="70" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="70" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B70" s="2"/>
       <c r="C70" s="1"/>
       <c r="D70" s="1"/>
       <c r="E70" s="1"/>
       <c r="F70" s="3"/>
     </row>
-    <row r="71" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="71" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B71" s="2"/>
       <c r="C71" s="1"/>
       <c r="D71" s="1"/>
       <c r="E71" s="1"/>
       <c r="F71" s="3"/>
     </row>
-    <row r="72" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="72" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B72" s="2"/>
       <c r="C72" s="1"/>
       <c r="D72" s="1"/>
       <c r="E72" s="1"/>
       <c r="F72" s="3"/>
     </row>
-    <row r="73" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="73" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B73" s="2"/>
       <c r="C73" s="1"/>
       <c r="D73" s="1"/>
       <c r="E73" s="1"/>
       <c r="F73" s="3"/>
     </row>
-    <row r="74" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="74" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B74" s="2"/>
       <c r="C74" s="1"/>
       <c r="D74" s="1"/>
       <c r="E74" s="1"/>
       <c r="F74" s="3"/>
     </row>
-    <row r="75" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="75" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B75" s="2"/>
       <c r="C75" s="1"/>
       <c r="D75" s="1"/>
       <c r="E75" s="1"/>
       <c r="F75" s="3"/>
     </row>
-    <row r="76" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="76" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B76" s="2"/>
       <c r="C76" s="1"/>
       <c r="D76" s="1"/>
       <c r="E76" s="1"/>
       <c r="F76" s="3"/>
     </row>
-    <row r="77" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="77" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B77" s="2"/>
       <c r="C77" s="1"/>
       <c r="D77" s="1"/>
       <c r="E77" s="1"/>
       <c r="F77" s="3"/>
     </row>
-    <row r="78" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="78" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B78" s="2"/>
       <c r="C78" s="1"/>
       <c r="D78" s="1"/>
       <c r="E78" s="1"/>
       <c r="F78" s="3"/>
     </row>
-    <row r="79" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="79" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B79" s="2"/>
       <c r="C79" s="1"/>
       <c r="D79" s="1"/>
       <c r="E79" s="1"/>
       <c r="F79" s="3"/>
     </row>
-    <row r="80" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="80" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B80" s="2"/>
       <c r="C80" s="1"/>
       <c r="D80" s="1"/>
       <c r="E80" s="1"/>
       <c r="F80" s="3"/>
     </row>
-    <row r="81" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="81" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B81" s="2"/>
       <c r="C81" s="1"/>
       <c r="D81" s="1"/>
       <c r="E81" s="1"/>
       <c r="F81" s="3"/>
     </row>
-    <row r="82" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="82" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B82" s="2"/>
       <c r="C82" s="1"/>
       <c r="D82" s="1"/>
       <c r="E82" s="1"/>
       <c r="F82" s="3"/>
     </row>
-    <row r="83" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="83" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B83" s="2"/>
       <c r="C83" s="1"/>
       <c r="D83" s="1"/>
       <c r="E83" s="1"/>
       <c r="F83" s="3"/>
     </row>
-    <row r="84" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="84" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B84" s="2"/>
       <c r="C84" s="1"/>
       <c r="D84" s="1"/>
       <c r="E84" s="1"/>
       <c r="F84" s="3"/>
     </row>
-    <row r="85" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="85" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B85" s="2"/>
       <c r="C85" s="1"/>
       <c r="D85" s="1"/>
       <c r="E85" s="1"/>
       <c r="F85" s="3"/>
     </row>
-    <row r="86" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="86" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B86" s="2"/>
       <c r="C86" s="1"/>
       <c r="D86" s="1"/>
       <c r="E86" s="1"/>
       <c r="F86" s="3"/>
     </row>
-    <row r="87" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="87" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B87" s="2"/>
       <c r="C87" s="1"/>
       <c r="D87" s="1"/>
       <c r="E87" s="1"/>
       <c r="F87" s="3"/>
     </row>
-    <row r="88" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="88" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B88" s="2"/>
       <c r="C88" s="1"/>
       <c r="D88" s="1"/>
       <c r="E88" s="1"/>
       <c r="F88" s="3"/>
     </row>
-    <row r="89" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="89" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B89" s="2"/>
       <c r="C89" s="1"/>
       <c r="D89" s="1"/>
       <c r="E89" s="1"/>
       <c r="F89" s="3"/>
     </row>
-    <row r="90" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="90" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B90" s="2"/>
       <c r="C90" s="1"/>
       <c r="D90" s="1"/>
       <c r="E90" s="1"/>
       <c r="F90" s="3"/>
     </row>
-    <row r="91" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="91" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B91" s="2"/>
       <c r="C91" s="1"/>
       <c r="D91" s="1"/>
       <c r="E91" s="1"/>
       <c r="F91" s="3"/>
     </row>
-    <row r="92" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="92" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B92" s="2"/>
       <c r="C92" s="1"/>
       <c r="D92" s="1"/>
       <c r="E92" s="1"/>
       <c r="F92" s="3"/>
     </row>
-    <row r="93" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="93" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B93" s="2"/>
       <c r="C93" s="1"/>
       <c r="D93" s="1"/>
       <c r="E93" s="1"/>
       <c r="F93" s="3"/>
     </row>
-    <row r="94" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="94" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B94" s="2"/>
       <c r="C94" s="1"/>
       <c r="D94" s="1"/>
       <c r="E94" s="1"/>
       <c r="F94" s="3"/>
     </row>
-    <row r="95" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="95" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B95" s="2"/>
       <c r="C95" s="1"/>
       <c r="D95" s="1"/>
       <c r="E95" s="1"/>
       <c r="F95" s="3"/>
     </row>
-    <row r="96" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="96" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B96" s="2"/>
       <c r="C96" s="1"/>
       <c r="D96" s="1"/>
       <c r="E96" s="1"/>
       <c r="F96" s="3"/>
     </row>
-    <row r="97" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="97" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B97" s="2"/>
       <c r="C97" s="1"/>
       <c r="D97" s="1"/>
       <c r="E97" s="1"/>
       <c r="F97" s="3"/>
     </row>
-    <row r="98" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="98" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B98" s="2"/>
       <c r="C98" s="1"/>
       <c r="D98" s="1"/>
       <c r="E98" s="1"/>
       <c r="F98" s="3"/>
     </row>
-    <row r="99" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="99" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B99" s="2"/>
       <c r="C99" s="1"/>
       <c r="D99" s="1"/>
       <c r="E99" s="1"/>
       <c r="F99" s="3"/>
     </row>
-    <row r="100" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="100" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B100" s="2"/>
       <c r="C100" s="1"/>
       <c r="D100" s="1"/>
       <c r="E100" s="1"/>
       <c r="F100" s="3"/>
     </row>
-    <row r="101" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="101" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B101" s="2"/>
       <c r="C101" s="1"/>
       <c r="D101" s="1"/>
       <c r="E101" s="1"/>
       <c r="F101" s="3"/>
     </row>
-    <row r="102" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="102" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B102" s="2"/>
       <c r="C102" s="1"/>
       <c r="D102" s="1"/>
       <c r="E102" s="1"/>
       <c r="F102" s="3"/>
     </row>
-    <row r="103" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="103" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B103" s="2"/>
       <c r="C103" s="1"/>
       <c r="D103" s="1"/>
       <c r="E103" s="1"/>
       <c r="F103" s="3"/>
     </row>
-    <row r="104" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="104" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B104" s="2"/>
       <c r="C104" s="1"/>
       <c r="D104" s="1"/>
       <c r="E104" s="1"/>
       <c r="F104" s="3"/>
     </row>
-    <row r="105" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="105" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B105" s="2"/>
       <c r="C105" s="1"/>
       <c r="D105" s="1"/>
       <c r="E105" s="1"/>
       <c r="F105" s="3"/>
     </row>
-    <row r="106" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="106" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B106" s="2"/>
       <c r="C106" s="1"/>
       <c r="D106" s="1"/>
       <c r="E106" s="1"/>
       <c r="F106" s="3"/>
     </row>
-    <row r="107" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="107" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B107" s="2"/>
       <c r="C107" s="1"/>
       <c r="D107" s="1"/>
       <c r="E107" s="1"/>
       <c r="F107" s="3"/>
     </row>
-    <row r="108" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="108" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B108" s="2"/>
       <c r="C108" s="1"/>
       <c r="D108" s="1"/>
       <c r="E108" s="1"/>
       <c r="F108" s="3"/>
     </row>
-    <row r="109" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="109" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B109" s="2"/>
       <c r="C109" s="1"/>
       <c r="D109" s="1"/>
       <c r="E109" s="1"/>
       <c r="F109" s="3"/>
     </row>
-    <row r="110" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="110" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B110" s="2"/>
       <c r="C110" s="1"/>
       <c r="D110" s="1"/>
       <c r="E110" s="1"/>
       <c r="F110" s="3"/>
     </row>
-    <row r="111" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="111" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B111" s="2"/>
       <c r="C111" s="1"/>
       <c r="D111" s="1"/>
       <c r="E111" s="1"/>
       <c r="F111" s="3"/>
     </row>
-    <row r="112" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="112" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B112" s="2"/>
       <c r="C112" s="1"/>
       <c r="D112" s="1"/>
       <c r="E112" s="1"/>
       <c r="F112" s="3"/>
     </row>
-    <row r="113" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="113" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B113" s="2"/>
       <c r="C113" s="1"/>
       <c r="D113" s="1"/>
       <c r="E113" s="1"/>
       <c r="F113" s="3"/>
     </row>
-    <row r="114" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="114" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B114" s="2"/>
       <c r="C114" s="1"/>
       <c r="D114" s="1"/>
       <c r="E114" s="1"/>
       <c r="F114" s="3"/>
     </row>
-    <row r="115" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="115" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B115" s="2"/>
       <c r="C115" s="1"/>
       <c r="D115" s="1"/>
       <c r="E115" s="1"/>
       <c r="F115" s="3"/>
     </row>
-    <row r="116" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="116" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B116" s="2"/>
       <c r="C116" s="1"/>
       <c r="D116" s="1"/>
       <c r="E116" s="1"/>
       <c r="F116" s="3"/>
     </row>
-    <row r="117" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="117" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B117" s="2"/>
       <c r="C117" s="1"/>
       <c r="D117" s="1"/>
       <c r="E117" s="1"/>
       <c r="F117" s="3"/>
     </row>
-    <row r="118" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="118" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B118" s="2"/>
       <c r="C118" s="1"/>
       <c r="D118" s="1"/>
       <c r="E118" s="1"/>
       <c r="F118" s="3"/>
     </row>
-    <row r="119" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="119" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B119" s="2"/>
       <c r="C119" s="1"/>
       <c r="D119" s="1"/>
       <c r="E119" s="1"/>
       <c r="F119" s="3"/>
     </row>
-    <row r="120" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="120" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B120" s="2"/>
       <c r="C120" s="1"/>
       <c r="D120" s="1"/>
       <c r="E120" s="1"/>
       <c r="F120" s="3"/>
     </row>
-    <row r="121" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="121" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B121" s="2"/>
       <c r="C121" s="1"/>
       <c r="D121" s="1"/>
       <c r="E121" s="1"/>
       <c r="F121" s="3"/>
     </row>
-    <row r="122" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="122" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B122" s="2"/>
       <c r="C122" s="1"/>
       <c r="D122" s="1"/>
       <c r="E122" s="1"/>
       <c r="F122" s="3"/>
     </row>
-    <row r="123" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="123" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B123" s="2"/>
       <c r="C123" s="1"/>
       <c r="D123" s="1"/>
       <c r="E123" s="1"/>
       <c r="F123" s="3"/>
     </row>
-    <row r="124" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="124" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B124" s="2"/>
       <c r="C124" s="1"/>
       <c r="D124" s="1"/>
       <c r="E124" s="1"/>
       <c r="F124" s="3"/>
     </row>
-    <row r="125" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="125" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B125" s="2"/>
       <c r="C125" s="1"/>
       <c r="D125" s="1"/>
       <c r="E125" s="1"/>
       <c r="F125" s="3"/>
     </row>
-    <row r="126" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="126" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B126" s="2"/>
       <c r="C126" s="1"/>
       <c r="D126" s="1"/>
       <c r="E126" s="1"/>
       <c r="F126" s="3"/>
     </row>
-    <row r="127" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="127" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B127" s="2"/>
       <c r="C127" s="1"/>
       <c r="D127" s="1"/>
       <c r="E127" s="1"/>
       <c r="F127" s="3"/>
     </row>
-    <row r="128" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="128" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B128" s="2"/>
       <c r="C128" s="1"/>
       <c r="D128" s="1"/>
       <c r="E128" s="1"/>
       <c r="F128" s="3"/>
     </row>
-    <row r="129" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="129" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B129" s="2"/>
       <c r="C129" s="1"/>
       <c r="D129" s="1"/>
       <c r="E129" s="1"/>
       <c r="F129" s="3"/>
     </row>
-    <row r="130" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="130" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B130" s="2"/>
       <c r="C130" s="1"/>
       <c r="D130" s="1"/>
       <c r="E130" s="1"/>
       <c r="F130" s="3"/>
     </row>
-    <row r="131" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="131" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B131" s="2"/>
       <c r="C131" s="1"/>
       <c r="D131" s="1"/>
       <c r="E131" s="1"/>
       <c r="F131" s="3"/>
     </row>
-    <row r="132" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="132" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B132" s="2"/>
       <c r="C132" s="1"/>
       <c r="D132" s="1"/>
       <c r="E132" s="1"/>
       <c r="F132" s="3"/>
     </row>
-    <row r="133" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="133" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B133" s="2"/>
       <c r="C133" s="1"/>
       <c r="D133" s="1"/>
       <c r="E133" s="1"/>
       <c r="F133" s="3"/>
     </row>
-    <row r="134" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="134" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B134" s="2"/>
       <c r="C134" s="1"/>
       <c r="D134" s="1"/>
       <c r="E134" s="1"/>
       <c r="F134" s="3"/>
     </row>
-    <row r="135" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="135" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B135" s="2"/>
       <c r="C135" s="1"/>
       <c r="D135" s="1"/>
       <c r="E135" s="1"/>
       <c r="F135" s="3"/>
     </row>
-    <row r="136" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="136" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B136" s="2"/>
       <c r="C136" s="1"/>
       <c r="D136" s="1"/>
       <c r="E136" s="1"/>
       <c r="F136" s="3"/>
     </row>
-    <row r="137" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="137" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B137" s="2"/>
       <c r="C137" s="1"/>
       <c r="D137" s="1"/>
       <c r="E137" s="1"/>
       <c r="F137" s="3"/>
     </row>
-    <row r="138" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="138" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B138" s="2"/>
       <c r="C138" s="1"/>
       <c r="D138" s="1"/>
       <c r="E138" s="1"/>
       <c r="F138" s="3"/>
     </row>
-    <row r="139" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="139" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B139" s="2"/>
       <c r="C139" s="1"/>
       <c r="D139" s="1"/>
       <c r="E139" s="1"/>
       <c r="F139" s="3"/>
     </row>
-    <row r="140" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="140" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B140" s="2"/>
       <c r="C140" s="1"/>
       <c r="D140" s="1"/>
       <c r="E140" s="1"/>
       <c r="F140" s="3"/>
     </row>
-    <row r="141" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="141" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B141" s="2"/>
       <c r="C141" s="1"/>
       <c r="D141" s="1"/>
       <c r="E141" s="1"/>
       <c r="F141" s="3"/>
     </row>
-    <row r="142" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="142" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B142" s="2"/>
       <c r="C142" s="1"/>
       <c r="D142" s="1"/>
       <c r="E142" s="1"/>
       <c r="F142" s="3"/>
     </row>
-    <row r="143" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="143" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B143" s="2"/>
       <c r="C143" s="1"/>
       <c r="D143" s="1"/>
       <c r="E143" s="1"/>
       <c r="F143" s="3"/>
     </row>
-    <row r="144" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="144" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B144" s="2"/>
       <c r="C144" s="1"/>
       <c r="D144" s="1"/>
       <c r="E144" s="1"/>
       <c r="F144" s="3"/>
     </row>
-    <row r="145" spans="2:6" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="145" spans="2:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B145" s="4"/>
       <c r="C145" s="5"/>
       <c r="D145" s="5"/>
@@ -1581,23 +1654,23 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="B1:F145"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="3" max="3" width="11.453125" customWidth="1"/>
-    <col min="4" max="4" width="12.81640625" customWidth="1"/>
-    <col min="5" max="5" width="44.90625" customWidth="1"/>
-    <col min="6" max="6" width="30.81640625" customWidth="1"/>
+    <col min="3" max="3" width="11.42578125" customWidth="1"/>
+    <col min="4" max="4" width="12.85546875" customWidth="1"/>
+    <col min="5" max="5" width="44.85546875" customWidth="1"/>
+    <col min="6" max="6" width="30.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:6" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
-    <row r="2" spans="2:6" ht="21" x14ac:dyDescent="0.5">
+    <row r="1" spans="2:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="2" spans="2:6" ht="21" x14ac:dyDescent="0.35">
       <c r="B2" s="10" t="s">
         <v>5</v>
       </c>
@@ -1606,7 +1679,7 @@
       <c r="E2" s="11"/>
       <c r="F2" s="12"/>
     </row>
-    <row r="3" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="3" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B3" s="7" t="s">
         <v>0</v>
       </c>
@@ -1623,994 +1696,994 @@
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="4" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B4" s="2"/>
       <c r="C4" s="1"/>
       <c r="D4" s="1"/>
       <c r="E4" s="1"/>
       <c r="F4" s="3"/>
     </row>
-    <row r="5" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="5" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B5" s="2"/>
       <c r="C5" s="1"/>
       <c r="D5" s="1"/>
       <c r="E5" s="1"/>
       <c r="F5" s="3"/>
     </row>
-    <row r="6" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="6" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B6" s="2"/>
       <c r="C6" s="1"/>
       <c r="D6" s="1"/>
       <c r="E6" s="1"/>
       <c r="F6" s="3"/>
     </row>
-    <row r="7" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="7" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B7" s="2"/>
       <c r="C7" s="1"/>
       <c r="D7" s="1"/>
       <c r="E7" s="1"/>
       <c r="F7" s="3"/>
     </row>
-    <row r="8" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="8" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B8" s="2"/>
       <c r="C8" s="1"/>
       <c r="D8" s="1"/>
       <c r="E8" s="1"/>
       <c r="F8" s="3"/>
     </row>
-    <row r="9" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="9" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B9" s="2"/>
       <c r="C9" s="1"/>
       <c r="D9" s="1"/>
       <c r="E9" s="1"/>
       <c r="F9" s="3"/>
     </row>
-    <row r="10" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="10" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B10" s="2"/>
       <c r="C10" s="1"/>
       <c r="D10" s="1"/>
       <c r="E10" s="1"/>
       <c r="F10" s="3"/>
     </row>
-    <row r="11" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="11" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B11" s="2"/>
       <c r="C11" s="1"/>
       <c r="D11" s="1"/>
       <c r="E11" s="1"/>
       <c r="F11" s="3"/>
     </row>
-    <row r="12" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="12" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B12" s="2"/>
       <c r="C12" s="1"/>
       <c r="D12" s="1"/>
       <c r="E12" s="1"/>
       <c r="F12" s="3"/>
     </row>
-    <row r="13" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="13" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B13" s="2"/>
       <c r="C13" s="1"/>
       <c r="D13" s="1"/>
       <c r="E13" s="1"/>
       <c r="F13" s="3"/>
     </row>
-    <row r="14" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="14" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B14" s="2"/>
       <c r="C14" s="1"/>
       <c r="D14" s="1"/>
       <c r="E14" s="1"/>
       <c r="F14" s="3"/>
     </row>
-    <row r="15" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="15" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B15" s="2"/>
       <c r="C15" s="1"/>
       <c r="D15" s="1"/>
       <c r="E15" s="1"/>
       <c r="F15" s="3"/>
     </row>
-    <row r="16" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="16" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B16" s="2"/>
       <c r="C16" s="1"/>
       <c r="D16" s="1"/>
       <c r="E16" s="1"/>
       <c r="F16" s="3"/>
     </row>
-    <row r="17" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="17" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B17" s="2"/>
       <c r="C17" s="1"/>
       <c r="D17" s="1"/>
       <c r="E17" s="1"/>
       <c r="F17" s="3"/>
     </row>
-    <row r="18" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="18" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B18" s="2"/>
       <c r="C18" s="1"/>
       <c r="D18" s="1"/>
       <c r="E18" s="1"/>
       <c r="F18" s="3"/>
     </row>
-    <row r="19" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="19" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B19" s="2"/>
       <c r="C19" s="1"/>
       <c r="D19" s="1"/>
       <c r="E19" s="1"/>
       <c r="F19" s="3"/>
     </row>
-    <row r="20" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="20" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B20" s="2"/>
       <c r="C20" s="1"/>
       <c r="D20" s="1"/>
       <c r="E20" s="1"/>
       <c r="F20" s="3"/>
     </row>
-    <row r="21" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="21" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B21" s="2"/>
       <c r="C21" s="1"/>
       <c r="D21" s="1"/>
       <c r="E21" s="1"/>
       <c r="F21" s="3"/>
     </row>
-    <row r="22" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="22" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B22" s="2"/>
       <c r="C22" s="1"/>
       <c r="D22" s="1"/>
       <c r="E22" s="1"/>
       <c r="F22" s="3"/>
     </row>
-    <row r="23" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="23" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B23" s="2"/>
       <c r="C23" s="1"/>
       <c r="D23" s="1"/>
       <c r="E23" s="1"/>
       <c r="F23" s="3"/>
     </row>
-    <row r="24" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="24" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B24" s="2"/>
       <c r="C24" s="1"/>
       <c r="D24" s="1"/>
       <c r="E24" s="1"/>
       <c r="F24" s="3"/>
     </row>
-    <row r="25" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="25" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B25" s="2"/>
       <c r="C25" s="1"/>
       <c r="D25" s="1"/>
       <c r="E25" s="1"/>
       <c r="F25" s="3"/>
     </row>
-    <row r="26" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="26" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B26" s="2"/>
       <c r="C26" s="1"/>
       <c r="D26" s="1"/>
       <c r="E26" s="1"/>
       <c r="F26" s="3"/>
     </row>
-    <row r="27" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="27" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B27" s="2"/>
       <c r="C27" s="1"/>
       <c r="D27" s="1"/>
       <c r="E27" s="1"/>
       <c r="F27" s="3"/>
     </row>
-    <row r="28" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="28" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B28" s="2"/>
       <c r="C28" s="1"/>
       <c r="D28" s="1"/>
       <c r="E28" s="1"/>
       <c r="F28" s="3"/>
     </row>
-    <row r="29" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="29" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B29" s="2"/>
       <c r="C29" s="1"/>
       <c r="D29" s="1"/>
       <c r="E29" s="1"/>
       <c r="F29" s="3"/>
     </row>
-    <row r="30" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="30" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B30" s="2"/>
       <c r="C30" s="1"/>
       <c r="D30" s="1"/>
       <c r="E30" s="1"/>
       <c r="F30" s="3"/>
     </row>
-    <row r="31" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="31" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B31" s="2"/>
       <c r="C31" s="1"/>
       <c r="D31" s="1"/>
       <c r="E31" s="1"/>
       <c r="F31" s="3"/>
     </row>
-    <row r="32" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="32" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B32" s="2"/>
       <c r="C32" s="1"/>
       <c r="D32" s="1"/>
       <c r="E32" s="1"/>
       <c r="F32" s="3"/>
     </row>
-    <row r="33" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="33" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B33" s="2"/>
       <c r="C33" s="1"/>
       <c r="D33" s="1"/>
       <c r="E33" s="1"/>
       <c r="F33" s="3"/>
     </row>
-    <row r="34" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="34" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B34" s="2"/>
       <c r="C34" s="1"/>
       <c r="D34" s="1"/>
       <c r="E34" s="1"/>
       <c r="F34" s="3"/>
     </row>
-    <row r="35" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="35" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B35" s="2"/>
       <c r="C35" s="1"/>
       <c r="D35" s="1"/>
       <c r="E35" s="1"/>
       <c r="F35" s="3"/>
     </row>
-    <row r="36" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="36" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B36" s="2"/>
       <c r="C36" s="1"/>
       <c r="D36" s="1"/>
       <c r="E36" s="1"/>
       <c r="F36" s="3"/>
     </row>
-    <row r="37" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="37" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B37" s="2"/>
       <c r="C37" s="1"/>
       <c r="D37" s="1"/>
       <c r="E37" s="1"/>
       <c r="F37" s="3"/>
     </row>
-    <row r="38" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="38" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B38" s="2"/>
       <c r="C38" s="1"/>
       <c r="D38" s="1"/>
       <c r="E38" s="1"/>
       <c r="F38" s="3"/>
     </row>
-    <row r="39" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="39" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B39" s="2"/>
       <c r="C39" s="1"/>
       <c r="D39" s="1"/>
       <c r="E39" s="1"/>
       <c r="F39" s="3"/>
     </row>
-    <row r="40" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="40" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B40" s="2"/>
       <c r="C40" s="1"/>
       <c r="D40" s="1"/>
       <c r="E40" s="1"/>
       <c r="F40" s="3"/>
     </row>
-    <row r="41" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="41" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B41" s="2"/>
       <c r="C41" s="1"/>
       <c r="D41" s="1"/>
       <c r="E41" s="1"/>
       <c r="F41" s="3"/>
     </row>
-    <row r="42" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="42" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B42" s="2"/>
       <c r="C42" s="1"/>
       <c r="D42" s="1"/>
       <c r="E42" s="1"/>
       <c r="F42" s="3"/>
     </row>
-    <row r="43" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="43" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B43" s="2"/>
       <c r="C43" s="1"/>
       <c r="D43" s="1"/>
       <c r="E43" s="1"/>
       <c r="F43" s="3"/>
     </row>
-    <row r="44" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="44" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B44" s="2"/>
       <c r="C44" s="1"/>
       <c r="D44" s="1"/>
       <c r="E44" s="1"/>
       <c r="F44" s="3"/>
     </row>
-    <row r="45" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="45" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B45" s="2"/>
       <c r="C45" s="1"/>
       <c r="D45" s="1"/>
       <c r="E45" s="1"/>
       <c r="F45" s="3"/>
     </row>
-    <row r="46" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="46" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B46" s="2"/>
       <c r="C46" s="1"/>
       <c r="D46" s="1"/>
       <c r="E46" s="1"/>
       <c r="F46" s="3"/>
     </row>
-    <row r="47" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="47" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B47" s="2"/>
       <c r="C47" s="1"/>
       <c r="D47" s="1"/>
       <c r="E47" s="1"/>
       <c r="F47" s="3"/>
     </row>
-    <row r="48" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="48" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B48" s="2"/>
       <c r="C48" s="1"/>
       <c r="D48" s="1"/>
       <c r="E48" s="1"/>
       <c r="F48" s="3"/>
     </row>
-    <row r="49" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="49" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B49" s="2"/>
       <c r="C49" s="1"/>
       <c r="D49" s="1"/>
       <c r="E49" s="1"/>
       <c r="F49" s="3"/>
     </row>
-    <row r="50" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="50" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B50" s="2"/>
       <c r="C50" s="1"/>
       <c r="D50" s="1"/>
       <c r="E50" s="1"/>
       <c r="F50" s="3"/>
     </row>
-    <row r="51" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="51" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B51" s="2"/>
       <c r="C51" s="1"/>
       <c r="D51" s="1"/>
       <c r="E51" s="1"/>
       <c r="F51" s="3"/>
     </row>
-    <row r="52" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="52" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B52" s="2"/>
       <c r="C52" s="1"/>
       <c r="D52" s="1"/>
       <c r="E52" s="1"/>
       <c r="F52" s="3"/>
     </row>
-    <row r="53" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="53" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B53" s="2"/>
       <c r="C53" s="1"/>
       <c r="D53" s="1"/>
       <c r="E53" s="1"/>
       <c r="F53" s="3"/>
     </row>
-    <row r="54" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="54" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B54" s="2"/>
       <c r="C54" s="1"/>
       <c r="D54" s="1"/>
       <c r="E54" s="1"/>
       <c r="F54" s="3"/>
     </row>
-    <row r="55" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="55" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B55" s="2"/>
       <c r="C55" s="1"/>
       <c r="D55" s="1"/>
       <c r="E55" s="1"/>
       <c r="F55" s="3"/>
     </row>
-    <row r="56" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="56" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B56" s="2"/>
       <c r="C56" s="1"/>
       <c r="D56" s="1"/>
       <c r="E56" s="1"/>
       <c r="F56" s="3"/>
     </row>
-    <row r="57" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="57" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B57" s="2"/>
       <c r="C57" s="1"/>
       <c r="D57" s="1"/>
       <c r="E57" s="1"/>
       <c r="F57" s="3"/>
     </row>
-    <row r="58" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="58" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B58" s="2"/>
       <c r="C58" s="1"/>
       <c r="D58" s="1"/>
       <c r="E58" s="1"/>
       <c r="F58" s="3"/>
     </row>
-    <row r="59" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="59" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B59" s="2"/>
       <c r="C59" s="1"/>
       <c r="D59" s="1"/>
       <c r="E59" s="1"/>
       <c r="F59" s="3"/>
     </row>
-    <row r="60" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="60" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B60" s="2"/>
       <c r="C60" s="1"/>
       <c r="D60" s="1"/>
       <c r="E60" s="1"/>
       <c r="F60" s="3"/>
     </row>
-    <row r="61" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="61" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B61" s="2"/>
       <c r="C61" s="1"/>
       <c r="D61" s="1"/>
       <c r="E61" s="1"/>
       <c r="F61" s="3"/>
     </row>
-    <row r="62" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="62" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B62" s="2"/>
       <c r="C62" s="1"/>
       <c r="D62" s="1"/>
       <c r="E62" s="1"/>
       <c r="F62" s="3"/>
     </row>
-    <row r="63" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="63" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B63" s="2"/>
       <c r="C63" s="1"/>
       <c r="D63" s="1"/>
       <c r="E63" s="1"/>
       <c r="F63" s="3"/>
     </row>
-    <row r="64" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="64" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B64" s="2"/>
       <c r="C64" s="1"/>
       <c r="D64" s="1"/>
       <c r="E64" s="1"/>
       <c r="F64" s="3"/>
     </row>
-    <row r="65" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="65" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B65" s="2"/>
       <c r="C65" s="1"/>
       <c r="D65" s="1"/>
       <c r="E65" s="1"/>
       <c r="F65" s="3"/>
     </row>
-    <row r="66" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="66" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B66" s="2"/>
       <c r="C66" s="1"/>
       <c r="D66" s="1"/>
       <c r="E66" s="1"/>
       <c r="F66" s="3"/>
     </row>
-    <row r="67" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="67" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B67" s="2"/>
       <c r="C67" s="1"/>
       <c r="D67" s="1"/>
       <c r="E67" s="1"/>
       <c r="F67" s="3"/>
     </row>
-    <row r="68" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="68" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B68" s="2"/>
       <c r="C68" s="1"/>
       <c r="D68" s="1"/>
       <c r="E68" s="1"/>
       <c r="F68" s="3"/>
     </row>
-    <row r="69" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="69" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B69" s="2"/>
       <c r="C69" s="1"/>
       <c r="D69" s="1"/>
       <c r="E69" s="1"/>
       <c r="F69" s="3"/>
     </row>
-    <row r="70" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="70" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B70" s="2"/>
       <c r="C70" s="1"/>
       <c r="D70" s="1"/>
       <c r="E70" s="1"/>
       <c r="F70" s="3"/>
     </row>
-    <row r="71" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="71" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B71" s="2"/>
       <c r="C71" s="1"/>
       <c r="D71" s="1"/>
       <c r="E71" s="1"/>
       <c r="F71" s="3"/>
     </row>
-    <row r="72" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="72" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B72" s="2"/>
       <c r="C72" s="1"/>
       <c r="D72" s="1"/>
       <c r="E72" s="1"/>
       <c r="F72" s="3"/>
     </row>
-    <row r="73" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="73" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B73" s="2"/>
       <c r="C73" s="1"/>
       <c r="D73" s="1"/>
       <c r="E73" s="1"/>
       <c r="F73" s="3"/>
     </row>
-    <row r="74" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="74" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B74" s="2"/>
       <c r="C74" s="1"/>
       <c r="D74" s="1"/>
       <c r="E74" s="1"/>
       <c r="F74" s="3"/>
     </row>
-    <row r="75" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="75" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B75" s="2"/>
       <c r="C75" s="1"/>
       <c r="D75" s="1"/>
       <c r="E75" s="1"/>
       <c r="F75" s="3"/>
     </row>
-    <row r="76" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="76" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B76" s="2"/>
       <c r="C76" s="1"/>
       <c r="D76" s="1"/>
       <c r="E76" s="1"/>
       <c r="F76" s="3"/>
     </row>
-    <row r="77" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="77" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B77" s="2"/>
       <c r="C77" s="1"/>
       <c r="D77" s="1"/>
       <c r="E77" s="1"/>
       <c r="F77" s="3"/>
     </row>
-    <row r="78" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="78" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B78" s="2"/>
       <c r="C78" s="1"/>
       <c r="D78" s="1"/>
       <c r="E78" s="1"/>
       <c r="F78" s="3"/>
     </row>
-    <row r="79" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="79" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B79" s="2"/>
       <c r="C79" s="1"/>
       <c r="D79" s="1"/>
       <c r="E79" s="1"/>
       <c r="F79" s="3"/>
     </row>
-    <row r="80" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="80" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B80" s="2"/>
       <c r="C80" s="1"/>
       <c r="D80" s="1"/>
       <c r="E80" s="1"/>
       <c r="F80" s="3"/>
     </row>
-    <row r="81" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="81" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B81" s="2"/>
       <c r="C81" s="1"/>
       <c r="D81" s="1"/>
       <c r="E81" s="1"/>
       <c r="F81" s="3"/>
     </row>
-    <row r="82" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="82" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B82" s="2"/>
       <c r="C82" s="1"/>
       <c r="D82" s="1"/>
       <c r="E82" s="1"/>
       <c r="F82" s="3"/>
     </row>
-    <row r="83" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="83" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B83" s="2"/>
       <c r="C83" s="1"/>
       <c r="D83" s="1"/>
       <c r="E83" s="1"/>
       <c r="F83" s="3"/>
     </row>
-    <row r="84" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="84" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B84" s="2"/>
       <c r="C84" s="1"/>
       <c r="D84" s="1"/>
       <c r="E84" s="1"/>
       <c r="F84" s="3"/>
     </row>
-    <row r="85" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="85" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B85" s="2"/>
       <c r="C85" s="1"/>
       <c r="D85" s="1"/>
       <c r="E85" s="1"/>
       <c r="F85" s="3"/>
     </row>
-    <row r="86" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="86" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B86" s="2"/>
       <c r="C86" s="1"/>
       <c r="D86" s="1"/>
       <c r="E86" s="1"/>
       <c r="F86" s="3"/>
     </row>
-    <row r="87" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="87" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B87" s="2"/>
       <c r="C87" s="1"/>
       <c r="D87" s="1"/>
       <c r="E87" s="1"/>
       <c r="F87" s="3"/>
     </row>
-    <row r="88" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="88" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B88" s="2"/>
       <c r="C88" s="1"/>
       <c r="D88" s="1"/>
       <c r="E88" s="1"/>
       <c r="F88" s="3"/>
     </row>
-    <row r="89" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="89" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B89" s="2"/>
       <c r="C89" s="1"/>
       <c r="D89" s="1"/>
       <c r="E89" s="1"/>
       <c r="F89" s="3"/>
     </row>
-    <row r="90" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="90" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B90" s="2"/>
       <c r="C90" s="1"/>
       <c r="D90" s="1"/>
       <c r="E90" s="1"/>
       <c r="F90" s="3"/>
     </row>
-    <row r="91" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="91" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B91" s="2"/>
       <c r="C91" s="1"/>
       <c r="D91" s="1"/>
       <c r="E91" s="1"/>
       <c r="F91" s="3"/>
     </row>
-    <row r="92" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="92" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B92" s="2"/>
       <c r="C92" s="1"/>
       <c r="D92" s="1"/>
       <c r="E92" s="1"/>
       <c r="F92" s="3"/>
     </row>
-    <row r="93" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="93" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B93" s="2"/>
       <c r="C93" s="1"/>
       <c r="D93" s="1"/>
       <c r="E93" s="1"/>
       <c r="F93" s="3"/>
     </row>
-    <row r="94" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="94" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B94" s="2"/>
       <c r="C94" s="1"/>
       <c r="D94" s="1"/>
       <c r="E94" s="1"/>
       <c r="F94" s="3"/>
     </row>
-    <row r="95" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="95" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B95" s="2"/>
       <c r="C95" s="1"/>
       <c r="D95" s="1"/>
       <c r="E95" s="1"/>
       <c r="F95" s="3"/>
     </row>
-    <row r="96" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="96" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B96" s="2"/>
       <c r="C96" s="1"/>
       <c r="D96" s="1"/>
       <c r="E96" s="1"/>
       <c r="F96" s="3"/>
     </row>
-    <row r="97" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="97" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B97" s="2"/>
       <c r="C97" s="1"/>
       <c r="D97" s="1"/>
       <c r="E97" s="1"/>
       <c r="F97" s="3"/>
     </row>
-    <row r="98" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="98" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B98" s="2"/>
       <c r="C98" s="1"/>
       <c r="D98" s="1"/>
       <c r="E98" s="1"/>
       <c r="F98" s="3"/>
     </row>
-    <row r="99" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="99" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B99" s="2"/>
       <c r="C99" s="1"/>
       <c r="D99" s="1"/>
       <c r="E99" s="1"/>
       <c r="F99" s="3"/>
     </row>
-    <row r="100" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="100" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B100" s="2"/>
       <c r="C100" s="1"/>
       <c r="D100" s="1"/>
       <c r="E100" s="1"/>
       <c r="F100" s="3"/>
     </row>
-    <row r="101" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="101" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B101" s="2"/>
       <c r="C101" s="1"/>
       <c r="D101" s="1"/>
       <c r="E101" s="1"/>
       <c r="F101" s="3"/>
     </row>
-    <row r="102" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="102" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B102" s="2"/>
       <c r="C102" s="1"/>
       <c r="D102" s="1"/>
       <c r="E102" s="1"/>
       <c r="F102" s="3"/>
     </row>
-    <row r="103" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="103" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B103" s="2"/>
       <c r="C103" s="1"/>
       <c r="D103" s="1"/>
       <c r="E103" s="1"/>
       <c r="F103" s="3"/>
     </row>
-    <row r="104" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="104" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B104" s="2"/>
       <c r="C104" s="1"/>
       <c r="D104" s="1"/>
       <c r="E104" s="1"/>
       <c r="F104" s="3"/>
     </row>
-    <row r="105" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="105" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B105" s="2"/>
       <c r="C105" s="1"/>
       <c r="D105" s="1"/>
       <c r="E105" s="1"/>
       <c r="F105" s="3"/>
     </row>
-    <row r="106" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="106" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B106" s="2"/>
       <c r="C106" s="1"/>
       <c r="D106" s="1"/>
       <c r="E106" s="1"/>
       <c r="F106" s="3"/>
     </row>
-    <row r="107" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="107" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B107" s="2"/>
       <c r="C107" s="1"/>
       <c r="D107" s="1"/>
       <c r="E107" s="1"/>
       <c r="F107" s="3"/>
     </row>
-    <row r="108" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="108" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B108" s="2"/>
       <c r="C108" s="1"/>
       <c r="D108" s="1"/>
       <c r="E108" s="1"/>
       <c r="F108" s="3"/>
     </row>
-    <row r="109" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="109" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B109" s="2"/>
       <c r="C109" s="1"/>
       <c r="D109" s="1"/>
       <c r="E109" s="1"/>
       <c r="F109" s="3"/>
     </row>
-    <row r="110" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="110" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B110" s="2"/>
       <c r="C110" s="1"/>
       <c r="D110" s="1"/>
       <c r="E110" s="1"/>
       <c r="F110" s="3"/>
     </row>
-    <row r="111" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="111" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B111" s="2"/>
       <c r="C111" s="1"/>
       <c r="D111" s="1"/>
       <c r="E111" s="1"/>
       <c r="F111" s="3"/>
     </row>
-    <row r="112" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="112" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B112" s="2"/>
       <c r="C112" s="1"/>
       <c r="D112" s="1"/>
       <c r="E112" s="1"/>
       <c r="F112" s="3"/>
     </row>
-    <row r="113" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="113" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B113" s="2"/>
       <c r="C113" s="1"/>
       <c r="D113" s="1"/>
       <c r="E113" s="1"/>
       <c r="F113" s="3"/>
     </row>
-    <row r="114" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="114" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B114" s="2"/>
       <c r="C114" s="1"/>
       <c r="D114" s="1"/>
       <c r="E114" s="1"/>
       <c r="F114" s="3"/>
     </row>
-    <row r="115" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="115" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B115" s="2"/>
       <c r="C115" s="1"/>
       <c r="D115" s="1"/>
       <c r="E115" s="1"/>
       <c r="F115" s="3"/>
     </row>
-    <row r="116" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="116" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B116" s="2"/>
       <c r="C116" s="1"/>
       <c r="D116" s="1"/>
       <c r="E116" s="1"/>
       <c r="F116" s="3"/>
     </row>
-    <row r="117" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="117" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B117" s="2"/>
       <c r="C117" s="1"/>
       <c r="D117" s="1"/>
       <c r="E117" s="1"/>
       <c r="F117" s="3"/>
     </row>
-    <row r="118" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="118" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B118" s="2"/>
       <c r="C118" s="1"/>
       <c r="D118" s="1"/>
       <c r="E118" s="1"/>
       <c r="F118" s="3"/>
     </row>
-    <row r="119" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="119" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B119" s="2"/>
       <c r="C119" s="1"/>
       <c r="D119" s="1"/>
       <c r="E119" s="1"/>
       <c r="F119" s="3"/>
     </row>
-    <row r="120" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="120" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B120" s="2"/>
       <c r="C120" s="1"/>
       <c r="D120" s="1"/>
       <c r="E120" s="1"/>
       <c r="F120" s="3"/>
     </row>
-    <row r="121" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="121" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B121" s="2"/>
       <c r="C121" s="1"/>
       <c r="D121" s="1"/>
       <c r="E121" s="1"/>
       <c r="F121" s="3"/>
     </row>
-    <row r="122" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="122" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B122" s="2"/>
       <c r="C122" s="1"/>
       <c r="D122" s="1"/>
       <c r="E122" s="1"/>
       <c r="F122" s="3"/>
     </row>
-    <row r="123" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="123" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B123" s="2"/>
       <c r="C123" s="1"/>
       <c r="D123" s="1"/>
       <c r="E123" s="1"/>
       <c r="F123" s="3"/>
     </row>
-    <row r="124" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="124" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B124" s="2"/>
       <c r="C124" s="1"/>
       <c r="D124" s="1"/>
       <c r="E124" s="1"/>
       <c r="F124" s="3"/>
     </row>
-    <row r="125" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="125" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B125" s="2"/>
       <c r="C125" s="1"/>
       <c r="D125" s="1"/>
       <c r="E125" s="1"/>
       <c r="F125" s="3"/>
     </row>
-    <row r="126" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="126" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B126" s="2"/>
       <c r="C126" s="1"/>
       <c r="D126" s="1"/>
       <c r="E126" s="1"/>
       <c r="F126" s="3"/>
     </row>
-    <row r="127" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="127" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B127" s="2"/>
       <c r="C127" s="1"/>
       <c r="D127" s="1"/>
       <c r="E127" s="1"/>
       <c r="F127" s="3"/>
     </row>
-    <row r="128" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="128" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B128" s="2"/>
       <c r="C128" s="1"/>
       <c r="D128" s="1"/>
       <c r="E128" s="1"/>
       <c r="F128" s="3"/>
     </row>
-    <row r="129" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="129" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B129" s="2"/>
       <c r="C129" s="1"/>
       <c r="D129" s="1"/>
       <c r="E129" s="1"/>
       <c r="F129" s="3"/>
     </row>
-    <row r="130" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="130" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B130" s="2"/>
       <c r="C130" s="1"/>
       <c r="D130" s="1"/>
       <c r="E130" s="1"/>
       <c r="F130" s="3"/>
     </row>
-    <row r="131" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="131" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B131" s="2"/>
       <c r="C131" s="1"/>
       <c r="D131" s="1"/>
       <c r="E131" s="1"/>
       <c r="F131" s="3"/>
     </row>
-    <row r="132" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="132" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B132" s="2"/>
       <c r="C132" s="1"/>
       <c r="D132" s="1"/>
       <c r="E132" s="1"/>
       <c r="F132" s="3"/>
     </row>
-    <row r="133" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="133" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B133" s="2"/>
       <c r="C133" s="1"/>
       <c r="D133" s="1"/>
       <c r="E133" s="1"/>
       <c r="F133" s="3"/>
     </row>
-    <row r="134" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="134" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B134" s="2"/>
       <c r="C134" s="1"/>
       <c r="D134" s="1"/>
       <c r="E134" s="1"/>
       <c r="F134" s="3"/>
     </row>
-    <row r="135" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="135" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B135" s="2"/>
       <c r="C135" s="1"/>
       <c r="D135" s="1"/>
       <c r="E135" s="1"/>
       <c r="F135" s="3"/>
     </row>
-    <row r="136" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="136" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B136" s="2"/>
       <c r="C136" s="1"/>
       <c r="D136" s="1"/>
       <c r="E136" s="1"/>
       <c r="F136" s="3"/>
     </row>
-    <row r="137" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="137" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B137" s="2"/>
       <c r="C137" s="1"/>
       <c r="D137" s="1"/>
       <c r="E137" s="1"/>
       <c r="F137" s="3"/>
     </row>
-    <row r="138" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="138" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B138" s="2"/>
       <c r="C138" s="1"/>
       <c r="D138" s="1"/>
       <c r="E138" s="1"/>
       <c r="F138" s="3"/>
     </row>
-    <row r="139" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="139" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B139" s="2"/>
       <c r="C139" s="1"/>
       <c r="D139" s="1"/>
       <c r="E139" s="1"/>
       <c r="F139" s="3"/>
     </row>
-    <row r="140" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="140" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B140" s="2"/>
       <c r="C140" s="1"/>
       <c r="D140" s="1"/>
       <c r="E140" s="1"/>
       <c r="F140" s="3"/>
     </row>
-    <row r="141" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="141" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B141" s="2"/>
       <c r="C141" s="1"/>
       <c r="D141" s="1"/>
       <c r="E141" s="1"/>
       <c r="F141" s="3"/>
     </row>
-    <row r="142" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="142" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B142" s="2"/>
       <c r="C142" s="1"/>
       <c r="D142" s="1"/>
       <c r="E142" s="1"/>
       <c r="F142" s="3"/>
     </row>
-    <row r="143" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="143" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B143" s="2"/>
       <c r="C143" s="1"/>
       <c r="D143" s="1"/>
       <c r="E143" s="1"/>
       <c r="F143" s="3"/>
     </row>
-    <row r="144" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="144" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B144" s="2"/>
       <c r="C144" s="1"/>
       <c r="D144" s="1"/>
       <c r="E144" s="1"/>
       <c r="F144" s="3"/>
     </row>
-    <row r="145" spans="2:6" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="145" spans="2:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B145" s="4"/>
       <c r="C145" s="5"/>
       <c r="D145" s="5"/>

--- a/Yuvaraj/Timesheet/Schwall_TraineeName_Timesheet_June_2021.xlsx
+++ b/Yuvaraj/Timesheet/Schwall_TraineeName_Timesheet_June_2021.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24026"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{C7912986-342E-4750-8C47-2A4566C607A0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{37E19367-1ADC-4F7F-8893-1DF41E3DA125}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="780" yWindow="780" windowWidth="14340" windowHeight="10020" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Week1" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="28">
   <si>
     <t>SlNo</t>
   </si>
@@ -78,6 +78,33 @@
   </si>
   <si>
     <t>4 hr</t>
+  </si>
+  <si>
+    <t>Java Training</t>
+  </si>
+  <si>
+    <t>Bpm Task</t>
+  </si>
+  <si>
+    <t>Draw Flow diagram for Cloud kitchen using camunda modulor</t>
+  </si>
+  <si>
+    <t>Practice HashMap,Stack,Queue topics which learned on training session</t>
+  </si>
+  <si>
+    <t>Learn About HashMap,Stack,Queue and list</t>
+  </si>
+  <si>
+    <t>Had review for BPMN flow diagram</t>
+  </si>
+  <si>
+    <t>2.5hr</t>
+  </si>
+  <si>
+    <t>1hr</t>
+  </si>
+  <si>
+    <t>4hr</t>
   </si>
 </sst>
 </file>
@@ -287,6 +314,7 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -296,7 +324,6 @@
     <xf numFmtId="0" fontId="2" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -580,7 +607,7 @@
   <dimension ref="B1:F145"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F13" sqref="F13"/>
+      <selection activeCell="F12" sqref="B9:F12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -593,13 +620,13 @@
   <sheetData>
     <row r="1" spans="2:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="2" spans="2:6" ht="21" x14ac:dyDescent="0.35">
-      <c r="B2" s="10" t="s">
+      <c r="B2" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="C2" s="11"/>
-      <c r="D2" s="11"/>
-      <c r="E2" s="11"/>
-      <c r="F2" s="12"/>
+      <c r="C2" s="12"/>
+      <c r="D2" s="12"/>
+      <c r="E2" s="12"/>
+      <c r="F2" s="13"/>
     </row>
     <row r="3" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B3" s="7" t="s">
@@ -622,7 +649,7 @@
       <c r="B4" s="2">
         <v>1</v>
       </c>
-      <c r="C4" s="13">
+      <c r="C4" s="10">
         <v>44351</v>
       </c>
       <c r="D4" s="1" t="s">
@@ -686,32 +713,60 @@
       </c>
     </row>
     <row r="9" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B9" s="2"/>
-      <c r="C9" s="1"/>
-      <c r="D9" s="1"/>
-      <c r="E9" s="1"/>
-      <c r="F9" s="3"/>
+      <c r="B9" s="2">
+        <v>2</v>
+      </c>
+      <c r="C9" s="10">
+        <v>44354</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="F9" s="3" t="s">
+        <v>16</v>
+      </c>
     </row>
     <row r="10" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B10" s="2"/>
       <c r="C10" s="1"/>
-      <c r="D10" s="1"/>
-      <c r="E10" s="1"/>
-      <c r="F10" s="3"/>
+      <c r="D10" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="F10" s="3" t="s">
+        <v>25</v>
+      </c>
     </row>
     <row r="11" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B11" s="2"/>
       <c r="C11" s="1"/>
-      <c r="D11" s="1"/>
-      <c r="E11" s="1"/>
-      <c r="F11" s="3"/>
+      <c r="D11" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E11" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="F11" s="3" t="s">
+        <v>27</v>
+      </c>
     </row>
     <row r="12" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B12" s="2"/>
       <c r="C12" s="1"/>
-      <c r="D12" s="1"/>
-      <c r="E12" s="1"/>
-      <c r="F12" s="3"/>
+      <c r="D12" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="E12" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="F12" s="3" t="s">
+        <v>26</v>
+      </c>
     </row>
     <row r="13" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B13" s="2"/>
@@ -1671,13 +1726,13 @@
   <sheetData>
     <row r="1" spans="2:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="2" spans="2:6" ht="21" x14ac:dyDescent="0.35">
-      <c r="B2" s="10" t="s">
+      <c r="B2" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="C2" s="11"/>
-      <c r="D2" s="11"/>
-      <c r="E2" s="11"/>
-      <c r="F2" s="12"/>
+      <c r="C2" s="12"/>
+      <c r="D2" s="12"/>
+      <c r="E2" s="12"/>
+      <c r="F2" s="13"/>
     </row>
     <row r="3" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B3" s="7" t="s">

--- a/Yuvaraj/Timesheet/Schwall_TraineeName_Timesheet_June_2021.xlsx
+++ b/Yuvaraj/Timesheet/Schwall_TraineeName_Timesheet_June_2021.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24026"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{37E19367-1ADC-4F7F-8893-1DF41E3DA125}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BECAD7E0-6A81-4FDE-BDE5-6146FAE01725}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="780" yWindow="780" windowWidth="14340" windowHeight="10020" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="35">
   <si>
     <t>SlNo</t>
   </si>
@@ -68,18 +68,6 @@
     <t>Practice collections topics which learned on training session</t>
   </si>
   <si>
-    <t>2.5 hr</t>
-  </si>
-  <si>
-    <t>1 hr</t>
-  </si>
-  <si>
-    <t>1.5 hr</t>
-  </si>
-  <si>
-    <t>4 hr</t>
-  </si>
-  <si>
     <t>Java Training</t>
   </si>
   <si>
@@ -98,13 +86,46 @@
     <t>Had review for BPMN flow diagram</t>
   </si>
   <si>
-    <t>2.5hr</t>
-  </si>
-  <si>
-    <t>1hr</t>
-  </si>
-  <si>
-    <t>4hr</t>
+    <t>Java session</t>
+  </si>
+  <si>
+    <t>Learn about HashMap, HashTable and eclipse format</t>
+  </si>
+  <si>
+    <t>Practice programs which was learn java session</t>
+  </si>
+  <si>
+    <t>HashTable Task</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Practice insert,update,delete student details by using HashTable </t>
+  </si>
+  <si>
+    <t>2.5hrs</t>
+  </si>
+  <si>
+    <t>2hrs</t>
+  </si>
+  <si>
+    <t>5hrs</t>
+  </si>
+  <si>
+    <t>1hrs</t>
+  </si>
+  <si>
+    <t>4hrs</t>
+  </si>
+  <si>
+    <t>1 hrs</t>
+  </si>
+  <si>
+    <t>4 hrs</t>
+  </si>
+  <si>
+    <t>2.5 hrs</t>
+  </si>
+  <si>
+    <t>1.5 hrs</t>
   </si>
 </sst>
 </file>
@@ -607,7 +628,7 @@
   <dimension ref="B1:F145"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F12" sqref="B9:F12"/>
+      <selection activeCell="F4" sqref="F4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -659,7 +680,7 @@
         <v>9</v>
       </c>
       <c r="F4" s="3" t="s">
-        <v>17</v>
+        <v>34</v>
       </c>
     </row>
     <row r="5" spans="2:6" x14ac:dyDescent="0.25">
@@ -670,7 +691,7 @@
       </c>
       <c r="E5" s="1"/>
       <c r="F5" s="3" t="s">
-        <v>16</v>
+        <v>31</v>
       </c>
     </row>
     <row r="6" spans="2:6" x14ac:dyDescent="0.25">
@@ -683,7 +704,7 @@
         <v>13</v>
       </c>
       <c r="F6" s="3" t="s">
-        <v>15</v>
+        <v>33</v>
       </c>
     </row>
     <row r="7" spans="2:6" x14ac:dyDescent="0.25">
@@ -696,7 +717,7 @@
         <v>14</v>
       </c>
       <c r="F7" s="3" t="s">
-        <v>18</v>
+        <v>32</v>
       </c>
     </row>
     <row r="8" spans="2:6" x14ac:dyDescent="0.25">
@@ -709,7 +730,7 @@
         <v>10</v>
       </c>
       <c r="F8" s="3" t="s">
-        <v>16</v>
+        <v>31</v>
       </c>
     </row>
     <row r="9" spans="2:6" x14ac:dyDescent="0.25">
@@ -723,23 +744,23 @@
         <v>11</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="F9" s="3" t="s">
-        <v>16</v>
+        <v>31</v>
       </c>
     </row>
     <row r="10" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B10" s="2"/>
       <c r="C10" s="1"/>
       <c r="D10" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E10" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="E10" s="1" t="s">
-        <v>23</v>
-      </c>
       <c r="F10" s="3" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="11" spans="2:6" x14ac:dyDescent="0.25">
@@ -749,45 +770,67 @@
         <v>8</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="F11" s="3" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
     </row>
     <row r="12" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B12" s="2"/>
       <c r="C12" s="1"/>
       <c r="D12" s="1" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="E12" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="F12" s="3" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="13" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B13" s="2">
+        <v>3</v>
+      </c>
+      <c r="C13" s="10">
+        <v>44355</v>
+      </c>
+      <c r="D13" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="F12" s="3" t="s">
+      <c r="E13" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="F13" s="3" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="13" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B13" s="2"/>
-      <c r="C13" s="1"/>
-      <c r="D13" s="1"/>
-      <c r="E13" s="1"/>
-      <c r="F13" s="3"/>
     </row>
     <row r="14" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B14" s="2"/>
       <c r="C14" s="1"/>
-      <c r="D14" s="1"/>
-      <c r="E14" s="1"/>
-      <c r="F14" s="3"/>
+      <c r="D14" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E14" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="F14" s="3" t="s">
+        <v>28</v>
+      </c>
     </row>
     <row r="15" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B15" s="2"/>
       <c r="C15" s="1"/>
-      <c r="D15" s="1"/>
-      <c r="E15" s="1"/>
-      <c r="F15" s="3"/>
+      <c r="D15" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="E15" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="F15" s="3" t="s">
+        <v>27</v>
+      </c>
     </row>
     <row r="16" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B16" s="2"/>

--- a/Yuvaraj/Timesheet/Schwall_TraineeName_Timesheet_June_2021.xlsx
+++ b/Yuvaraj/Timesheet/Schwall_TraineeName_Timesheet_June_2021.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24026"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BECAD7E0-6A81-4FDE-BDE5-6146FAE01725}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7FB2E3D8-08A1-414F-A8EB-1295B329520B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="780" yWindow="780" windowWidth="14340" windowHeight="10020" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1170" yWindow="1170" windowWidth="14340" windowHeight="10020" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Week1" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="40">
   <si>
     <t>SlNo</t>
   </si>
@@ -101,9 +101,6 @@
     <t xml:space="preserve">Practice insert,update,delete student details by using HashTable </t>
   </si>
   <si>
-    <t>2.5hrs</t>
-  </si>
-  <si>
     <t>2hrs</t>
   </si>
   <si>
@@ -122,10 +119,28 @@
     <t>4 hrs</t>
   </si>
   <si>
-    <t>2.5 hrs</t>
-  </si>
-  <si>
-    <t>1.5 hrs</t>
+    <t>practice</t>
+  </si>
+  <si>
+    <t>create web page using html and css</t>
+  </si>
+  <si>
+    <t>html task</t>
+  </si>
+  <si>
+    <t>Revise the previews topics and learn html tags</t>
+  </si>
+  <si>
+    <t>2.30hrs</t>
+  </si>
+  <si>
+    <t>1.30 hrs</t>
+  </si>
+  <si>
+    <t>2.30 hrs</t>
+  </si>
+  <si>
+    <t>1.30hrs</t>
   </si>
 </sst>
 </file>
@@ -627,8 +642,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B1:F145"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F4" sqref="F4"/>
+    <sheetView tabSelected="1" topLeftCell="A9" workbookViewId="0">
+      <selection activeCell="F15" sqref="F15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -680,7 +695,7 @@
         <v>9</v>
       </c>
       <c r="F4" s="3" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
     </row>
     <row r="5" spans="2:6" x14ac:dyDescent="0.25">
@@ -691,7 +706,7 @@
       </c>
       <c r="E5" s="1"/>
       <c r="F5" s="3" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="6" spans="2:6" x14ac:dyDescent="0.25">
@@ -704,7 +719,7 @@
         <v>13</v>
       </c>
       <c r="F6" s="3" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
     </row>
     <row r="7" spans="2:6" x14ac:dyDescent="0.25">
@@ -717,7 +732,7 @@
         <v>14</v>
       </c>
       <c r="F7" s="3" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="8" spans="2:6" x14ac:dyDescent="0.25">
@@ -730,7 +745,7 @@
         <v>10</v>
       </c>
       <c r="F8" s="3" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="9" spans="2:6" x14ac:dyDescent="0.25">
@@ -747,7 +762,7 @@
         <v>20</v>
       </c>
       <c r="F9" s="3" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="10" spans="2:6" x14ac:dyDescent="0.25">
@@ -760,7 +775,7 @@
         <v>19</v>
       </c>
       <c r="F10" s="3" t="s">
-        <v>26</v>
+        <v>36</v>
       </c>
     </row>
     <row r="11" spans="2:6" x14ac:dyDescent="0.25">
@@ -773,7 +788,7 @@
         <v>18</v>
       </c>
       <c r="F11" s="3" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="12" spans="2:6" x14ac:dyDescent="0.25">
@@ -786,7 +801,7 @@
         <v>17</v>
       </c>
       <c r="F12" s="3" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="13" spans="2:6" x14ac:dyDescent="0.25">
@@ -803,7 +818,7 @@
         <v>22</v>
       </c>
       <c r="F13" s="3" t="s">
-        <v>26</v>
+        <v>36</v>
       </c>
     </row>
     <row r="14" spans="2:6" x14ac:dyDescent="0.25">
@@ -816,7 +831,7 @@
         <v>23</v>
       </c>
       <c r="F14" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="15" spans="2:6" x14ac:dyDescent="0.25">
@@ -829,29 +844,51 @@
         <v>25</v>
       </c>
       <c r="F15" s="3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="16" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B16" s="2"/>
-      <c r="C16" s="1"/>
-      <c r="D16" s="1"/>
-      <c r="E16" s="1"/>
-      <c r="F16" s="3"/>
+      <c r="B16" s="2">
+        <v>4</v>
+      </c>
+      <c r="C16" s="10">
+        <v>44356</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E16" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="F16" s="3" t="s">
+        <v>36</v>
+      </c>
     </row>
     <row r="17" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B17" s="2"/>
       <c r="C17" s="1"/>
-      <c r="D17" s="1"/>
-      <c r="E17" s="1"/>
-      <c r="F17" s="3"/>
+      <c r="D17" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="E17" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="F17" s="3" t="s">
+        <v>27</v>
+      </c>
     </row>
     <row r="18" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B18" s="2"/>
       <c r="C18" s="1"/>
-      <c r="D18" s="1"/>
-      <c r="E18" s="1"/>
-      <c r="F18" s="3"/>
+      <c r="D18" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="E18" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="F18" s="3" t="s">
+        <v>39</v>
+      </c>
     </row>
     <row r="19" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B19" s="2"/>

--- a/Yuvaraj/Timesheet/Schwall_TraineeName_Timesheet_June_2021.xlsx
+++ b/Yuvaraj/Timesheet/Schwall_TraineeName_Timesheet_June_2021.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24026"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7FB2E3D8-08A1-414F-A8EB-1295B329520B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{85C81F17-77AD-4B1B-9C4D-EE0E4895E79A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1170" yWindow="1170" windowWidth="14340" windowHeight="10020" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="780" yWindow="780" windowWidth="14340" windowHeight="10020" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Week1" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="46">
   <si>
     <t>SlNo</t>
   </si>
@@ -141,6 +141,24 @@
   </si>
   <si>
     <t>1.30hrs</t>
+  </si>
+  <si>
+    <t>Bpm session</t>
+  </si>
+  <si>
+    <t>Web page task</t>
+  </si>
+  <si>
+    <t>Had training for bpm flowchart and works</t>
+  </si>
+  <si>
+    <t>Learn about servlet and client side,server side</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Create login,home,registration,about us web pages using html and css </t>
+  </si>
+  <si>
+    <t>2 hrs</t>
   </si>
 </sst>
 </file>
@@ -642,8 +660,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B1:F145"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A9" workbookViewId="0">
-      <selection activeCell="F15" sqref="F15"/>
+    <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
+      <selection activeCell="F21" sqref="F21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -891,32 +909,60 @@
       </c>
     </row>
     <row r="19" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B19" s="2"/>
-      <c r="C19" s="1"/>
-      <c r="D19" s="1"/>
-      <c r="E19" s="1"/>
-      <c r="F19" s="3"/>
+      <c r="B19" s="2">
+        <v>5</v>
+      </c>
+      <c r="C19" s="10">
+        <v>44357</v>
+      </c>
+      <c r="D19" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="E19" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="F19" s="3" t="s">
+        <v>39</v>
+      </c>
     </row>
     <row r="20" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B20" s="2"/>
       <c r="C20" s="1"/>
-      <c r="D20" s="1"/>
-      <c r="E20" s="1"/>
-      <c r="F20" s="3"/>
+      <c r="D20" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E20" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="F20" s="3" t="s">
+        <v>26</v>
+      </c>
     </row>
     <row r="21" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B21" s="2"/>
       <c r="C21" s="1"/>
-      <c r="D21" s="1"/>
-      <c r="E21" s="1"/>
-      <c r="F21" s="3"/>
+      <c r="D21" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="E21" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="F21" s="3" t="s">
+        <v>29</v>
+      </c>
     </row>
     <row r="22" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B22" s="2"/>
       <c r="C22" s="1"/>
-      <c r="D22" s="1"/>
-      <c r="E22" s="1"/>
-      <c r="F22" s="3"/>
+      <c r="D22" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="E22" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="F22" s="3" t="s">
+        <v>45</v>
+      </c>
     </row>
     <row r="23" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B23" s="2"/>

--- a/Yuvaraj/Timesheet/Schwall_TraineeName_Timesheet_June_2021.xlsx
+++ b/Yuvaraj/Timesheet/Schwall_TraineeName_Timesheet_June_2021.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24026"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{85C81F17-77AD-4B1B-9C4D-EE0E4895E79A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B21A2D76-1AA0-4BAA-9F47-17B6BB2447CE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="780" yWindow="780" windowWidth="14340" windowHeight="10020" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="49">
   <si>
     <t>SlNo</t>
   </si>
@@ -159,6 +159,15 @@
   </si>
   <si>
     <t>2 hrs</t>
+  </si>
+  <si>
+    <t>Learn data structures and collections</t>
+  </si>
+  <si>
+    <t>Practice  core java program and html tags</t>
+  </si>
+  <si>
+    <t>7hrs</t>
   </si>
 </sst>
 </file>
@@ -660,8 +669,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B1:F145"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
-      <selection activeCell="F21" sqref="F21"/>
+    <sheetView tabSelected="1" topLeftCell="A14" workbookViewId="0">
+      <selection activeCell="E26" sqref="E26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -965,18 +974,34 @@
       </c>
     </row>
     <row r="23" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B23" s="2"/>
-      <c r="C23" s="1"/>
-      <c r="D23" s="1"/>
-      <c r="E23" s="1"/>
-      <c r="F23" s="3"/>
+      <c r="B23" s="2">
+        <v>6</v>
+      </c>
+      <c r="C23" s="10">
+        <v>44359</v>
+      </c>
+      <c r="D23" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E23" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="F23" s="3" t="s">
+        <v>36</v>
+      </c>
     </row>
     <row r="24" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B24" s="2"/>
       <c r="C24" s="1"/>
-      <c r="D24" s="1"/>
-      <c r="E24" s="1"/>
-      <c r="F24" s="3"/>
+      <c r="D24" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="E24" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="F24" s="3" t="s">
+        <v>48</v>
+      </c>
     </row>
     <row r="25" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B25" s="2"/>

--- a/Yuvaraj/Timesheet/Schwall_TraineeName_Timesheet_June_2021.xlsx
+++ b/Yuvaraj/Timesheet/Schwall_TraineeName_Timesheet_June_2021.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24026"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B21A2D76-1AA0-4BAA-9F47-17B6BB2447CE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2EE885DA-701E-4860-8994-6E642ECC6456}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="780" yWindow="780" windowWidth="14340" windowHeight="10020" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -670,7 +670,7 @@
   <dimension ref="B1:F145"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A14" workbookViewId="0">
-      <selection activeCell="E26" sqref="E26"/>
+      <selection activeCell="C23" sqref="C23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -978,7 +978,7 @@
         <v>6</v>
       </c>
       <c r="C23" s="10">
-        <v>44359</v>
+        <v>44358</v>
       </c>
       <c r="D23" s="1" t="s">
         <v>13</v>

--- a/Yuvaraj/Timesheet/Schwall_TraineeName_Timesheet_June_2021.xlsx
+++ b/Yuvaraj/Timesheet/Schwall_TraineeName_Timesheet_June_2021.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24026"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2EE885DA-701E-4860-8994-6E642ECC6456}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{98A868A8-B582-490B-BBD5-F0F6E6915D00}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="780" yWindow="780" windowWidth="14340" windowHeight="10020" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="54">
   <si>
     <t>SlNo</t>
   </si>
@@ -131,18 +131,6 @@
     <t>Revise the previews topics and learn html tags</t>
   </si>
   <si>
-    <t>2.30hrs</t>
-  </si>
-  <si>
-    <t>1.30 hrs</t>
-  </si>
-  <si>
-    <t>2.30 hrs</t>
-  </si>
-  <si>
-    <t>1.30hrs</t>
-  </si>
-  <si>
     <t>Bpm session</t>
   </si>
   <si>
@@ -168,6 +156,33 @@
   </si>
   <si>
     <t>7hrs</t>
+  </si>
+  <si>
+    <t>Learn servlet configuration and html tags</t>
+  </si>
+  <si>
+    <t>practice programs usingservlet and jsp</t>
+  </si>
+  <si>
+    <t>8hrs</t>
+  </si>
+  <si>
+    <t>Revise interface,abstraction and exception topics</t>
+  </si>
+  <si>
+    <t>practice jervlet and jsp concepts</t>
+  </si>
+  <si>
+    <t>3hrs</t>
+  </si>
+  <si>
+    <t>2.5hrs</t>
+  </si>
+  <si>
+    <t>2.5 hrs</t>
+  </si>
+  <si>
+    <t>1.5hrs</t>
   </si>
 </sst>
 </file>
@@ -669,8 +684,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B1:F145"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A14" workbookViewId="0">
-      <selection activeCell="C23" sqref="C23"/>
+    <sheetView tabSelected="1" topLeftCell="C12" workbookViewId="0">
+      <selection activeCell="F16" sqref="F16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -722,7 +737,7 @@
         <v>9</v>
       </c>
       <c r="F4" s="3" t="s">
-        <v>37</v>
+        <v>53</v>
       </c>
     </row>
     <row r="5" spans="2:6" x14ac:dyDescent="0.25">
@@ -746,7 +761,7 @@
         <v>13</v>
       </c>
       <c r="F6" s="3" t="s">
-        <v>38</v>
+        <v>52</v>
       </c>
     </row>
     <row r="7" spans="2:6" x14ac:dyDescent="0.25">
@@ -802,7 +817,7 @@
         <v>19</v>
       </c>
       <c r="F10" s="3" t="s">
-        <v>36</v>
+        <v>51</v>
       </c>
     </row>
     <row r="11" spans="2:6" x14ac:dyDescent="0.25">
@@ -845,7 +860,7 @@
         <v>22</v>
       </c>
       <c r="F13" s="3" t="s">
-        <v>36</v>
+        <v>51</v>
       </c>
     </row>
     <row r="14" spans="2:6" x14ac:dyDescent="0.25">
@@ -888,7 +903,7 @@
         <v>35</v>
       </c>
       <c r="F16" s="3" t="s">
-        <v>36</v>
+        <v>51</v>
       </c>
     </row>
     <row r="17" spans="2:6" x14ac:dyDescent="0.25">
@@ -914,7 +929,7 @@
         <v>33</v>
       </c>
       <c r="F18" s="3" t="s">
-        <v>39</v>
+        <v>53</v>
       </c>
     </row>
     <row r="19" spans="2:6" x14ac:dyDescent="0.25">
@@ -925,13 +940,13 @@
         <v>44357</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="E19" s="1" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="F19" s="3" t="s">
-        <v>39</v>
+        <v>53</v>
       </c>
     </row>
     <row r="20" spans="2:6" x14ac:dyDescent="0.25">
@@ -941,7 +956,7 @@
         <v>13</v>
       </c>
       <c r="E20" s="1" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="F20" s="3" t="s">
         <v>26</v>
@@ -964,13 +979,13 @@
       <c r="B22" s="2"/>
       <c r="C22" s="1"/>
       <c r="D22" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="E22" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="F22" s="3" t="s">
         <v>41</v>
-      </c>
-      <c r="E22" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="F22" s="3" t="s">
-        <v>45</v>
       </c>
     </row>
     <row r="23" spans="2:6" x14ac:dyDescent="0.25">
@@ -984,10 +999,10 @@
         <v>13</v>
       </c>
       <c r="E23" s="1" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="F23" s="3" t="s">
-        <v>36</v>
+        <v>51</v>
       </c>
     </row>
     <row r="24" spans="2:6" x14ac:dyDescent="0.25">
@@ -997,39 +1012,71 @@
         <v>32</v>
       </c>
       <c r="E24" s="1" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="F24" s="3" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
     </row>
     <row r="25" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B25" s="2"/>
-      <c r="C25" s="1"/>
-      <c r="D25" s="1"/>
-      <c r="E25" s="1"/>
-      <c r="F25" s="3"/>
+      <c r="B25" s="2">
+        <v>7</v>
+      </c>
+      <c r="C25" s="10">
+        <v>44361</v>
+      </c>
+      <c r="D25" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E25" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="F25" s="3" t="s">
+        <v>26</v>
+      </c>
     </row>
     <row r="26" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B26" s="2"/>
       <c r="C26" s="1"/>
-      <c r="D26" s="1"/>
-      <c r="E26" s="1"/>
-      <c r="F26" s="3"/>
+      <c r="D26" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="E26" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="F26" s="3" t="s">
+        <v>47</v>
+      </c>
     </row>
     <row r="27" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B27" s="2"/>
-      <c r="C27" s="1"/>
-      <c r="D27" s="1"/>
-      <c r="E27" s="1"/>
-      <c r="F27" s="3"/>
+      <c r="B27" s="2">
+        <v>8</v>
+      </c>
+      <c r="C27" s="10">
+        <v>44362</v>
+      </c>
+      <c r="D27" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E27" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="F27" s="3" t="s">
+        <v>50</v>
+      </c>
     </row>
     <row r="28" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B28" s="2"/>
       <c r="C28" s="1"/>
-      <c r="D28" s="1"/>
-      <c r="E28" s="1"/>
-      <c r="F28" s="3"/>
+      <c r="D28" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="E28" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="F28" s="3" t="s">
+        <v>47</v>
+      </c>
     </row>
     <row r="29" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B29" s="2"/>

--- a/Yuvaraj/Timesheet/Schwall_TraineeName_Timesheet_June_2021.xlsx
+++ b/Yuvaraj/Timesheet/Schwall_TraineeName_Timesheet_June_2021.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24026"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{98A868A8-B582-490B-BBD5-F0F6E6915D00}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5CBE9EC5-C8C8-46CF-9AEB-0988B963FED3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="780" yWindow="780" windowWidth="14340" windowHeight="10020" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="56">
   <si>
     <t>SlNo</t>
   </si>
@@ -183,6 +183,12 @@
   </si>
   <si>
     <t>1.5hrs</t>
+  </si>
+  <si>
+    <t>Revise thread concepts and html css concepts</t>
+  </si>
+  <si>
+    <t>Practice Collections topics and create website using css html</t>
   </si>
 </sst>
 </file>
@@ -684,8 +690,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B1:F145"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C12" workbookViewId="0">
-      <selection activeCell="F16" sqref="F16"/>
+    <sheetView tabSelected="1" topLeftCell="B19" workbookViewId="0">
+      <selection activeCell="G26" sqref="G26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1080,17 +1086,31 @@
     </row>
     <row r="29" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B29" s="2"/>
-      <c r="C29" s="1"/>
-      <c r="D29" s="1"/>
-      <c r="E29" s="1"/>
-      <c r="F29" s="3"/>
+      <c r="C29" s="10">
+        <v>44363</v>
+      </c>
+      <c r="D29" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E29" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="F29" s="3" t="s">
+        <v>29</v>
+      </c>
     </row>
     <row r="30" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B30" s="2"/>
       <c r="C30" s="1"/>
-      <c r="D30" s="1"/>
-      <c r="E30" s="1"/>
-      <c r="F30" s="3"/>
+      <c r="D30" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="E30" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="F30" s="3" t="s">
+        <v>47</v>
+      </c>
     </row>
     <row r="31" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B31" s="2"/>

--- a/Yuvaraj/Timesheet/Schwall_TraineeName_Timesheet_June_2021.xlsx
+++ b/Yuvaraj/Timesheet/Schwall_TraineeName_Timesheet_June_2021.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24026"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5CBE9EC5-C8C8-46CF-9AEB-0988B963FED3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0CEEF407-08CD-40A8-A052-4686D5A67CE6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="780" yWindow="780" windowWidth="14340" windowHeight="10020" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="49">
   <si>
     <t>SlNo</t>
   </si>
@@ -101,24 +101,6 @@
     <t xml:space="preserve">Practice insert,update,delete student details by using HashTable </t>
   </si>
   <si>
-    <t>2hrs</t>
-  </si>
-  <si>
-    <t>5hrs</t>
-  </si>
-  <si>
-    <t>1hrs</t>
-  </si>
-  <si>
-    <t>4hrs</t>
-  </si>
-  <si>
-    <t>1 hrs</t>
-  </si>
-  <si>
-    <t>4 hrs</t>
-  </si>
-  <si>
     <t>practice</t>
   </si>
   <si>
@@ -146,49 +128,46 @@
     <t xml:space="preserve">Create login,home,registration,about us web pages using html and css </t>
   </si>
   <si>
-    <t>2 hrs</t>
-  </si>
-  <si>
     <t>Learn data structures and collections</t>
   </si>
   <si>
     <t>Practice  core java program and html tags</t>
   </si>
   <si>
-    <t>7hrs</t>
-  </si>
-  <si>
     <t>Learn servlet configuration and html tags</t>
   </si>
   <si>
     <t>practice programs usingservlet and jsp</t>
   </si>
   <si>
-    <t>8hrs</t>
-  </si>
-  <si>
     <t>Revise interface,abstraction and exception topics</t>
   </si>
   <si>
     <t>practice jervlet and jsp concepts</t>
   </si>
   <si>
-    <t>3hrs</t>
-  </si>
-  <si>
-    <t>2.5hrs</t>
-  </si>
-  <si>
-    <t>2.5 hrs</t>
-  </si>
-  <si>
-    <t>1.5hrs</t>
-  </si>
-  <si>
     <t>Revise thread concepts and html css concepts</t>
   </si>
   <si>
     <t>Practice Collections topics and create website using css html</t>
+  </si>
+  <si>
+    <t>BPMN session</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Learn exception handling </t>
+  </si>
+  <si>
+    <t>Learn jbpm configuration setup and gateway</t>
+  </si>
+  <si>
+    <t>Practice exception handling and jbpn configuration setup</t>
+  </si>
+  <si>
+    <t>ArrayList concept revise</t>
+  </si>
+  <si>
+    <t>""</t>
   </si>
 </sst>
 </file>
@@ -690,8 +669,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B1:F145"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B19" workbookViewId="0">
-      <selection activeCell="G26" sqref="G26"/>
+    <sheetView tabSelected="1" topLeftCell="B24" workbookViewId="0">
+      <selection activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -742,8 +721,8 @@
       <c r="E4" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="F4" s="3" t="s">
-        <v>53</v>
+      <c r="F4" s="3">
+        <v>1.5</v>
       </c>
     </row>
     <row r="5" spans="2:6" x14ac:dyDescent="0.25">
@@ -753,8 +732,8 @@
         <v>12</v>
       </c>
       <c r="E5" s="1"/>
-      <c r="F5" s="3" t="s">
-        <v>30</v>
+      <c r="F5" s="3">
+        <v>1</v>
       </c>
     </row>
     <row r="6" spans="2:6" x14ac:dyDescent="0.25">
@@ -766,8 +745,8 @@
       <c r="E6" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="F6" s="3" t="s">
-        <v>52</v>
+      <c r="F6" s="3">
+        <v>2.5</v>
       </c>
     </row>
     <row r="7" spans="2:6" x14ac:dyDescent="0.25">
@@ -779,8 +758,8 @@
       <c r="E7" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="F7" s="3" t="s">
-        <v>31</v>
+      <c r="F7" s="3">
+        <v>4</v>
       </c>
     </row>
     <row r="8" spans="2:6" x14ac:dyDescent="0.25">
@@ -792,8 +771,8 @@
       <c r="E8" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="F8" s="3" t="s">
-        <v>30</v>
+      <c r="F8" s="3">
+        <v>1</v>
       </c>
     </row>
     <row r="9" spans="2:6" x14ac:dyDescent="0.25">
@@ -809,8 +788,8 @@
       <c r="E9" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="F9" s="3" t="s">
-        <v>30</v>
+      <c r="F9" s="3">
+        <v>1</v>
       </c>
     </row>
     <row r="10" spans="2:6" x14ac:dyDescent="0.25">
@@ -822,8 +801,8 @@
       <c r="E10" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="F10" s="3" t="s">
-        <v>51</v>
+      <c r="F10" s="3">
+        <v>2.5</v>
       </c>
     </row>
     <row r="11" spans="2:6" x14ac:dyDescent="0.25">
@@ -835,8 +814,8 @@
       <c r="E11" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="F11" s="3" t="s">
-        <v>29</v>
+      <c r="F11" s="3">
+        <v>4</v>
       </c>
     </row>
     <row r="12" spans="2:6" x14ac:dyDescent="0.25">
@@ -848,8 +827,8 @@
       <c r="E12" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="F12" s="3" t="s">
-        <v>28</v>
+      <c r="F12" s="3">
+        <v>1</v>
       </c>
     </row>
     <row r="13" spans="2:6" x14ac:dyDescent="0.25">
@@ -865,8 +844,8 @@
       <c r="E13" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="F13" s="3" t="s">
-        <v>51</v>
+      <c r="F13" s="3">
+        <v>2.5</v>
       </c>
     </row>
     <row r="14" spans="2:6" x14ac:dyDescent="0.25">
@@ -878,8 +857,8 @@
       <c r="E14" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="F14" s="3" t="s">
-        <v>27</v>
+      <c r="F14" s="3">
+        <v>5</v>
       </c>
     </row>
     <row r="15" spans="2:6" x14ac:dyDescent="0.25">
@@ -891,8 +870,8 @@
       <c r="E15" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="F15" s="3" t="s">
-        <v>26</v>
+      <c r="F15" s="3">
+        <v>2</v>
       </c>
     </row>
     <row r="16" spans="2:6" x14ac:dyDescent="0.25">
@@ -906,36 +885,36 @@
         <v>13</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="F16" s="3" t="s">
-        <v>51</v>
+        <v>29</v>
+      </c>
+      <c r="F16" s="3">
+        <v>2.5</v>
       </c>
     </row>
     <row r="17" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B17" s="2"/>
       <c r="C17" s="1"/>
       <c r="D17" s="1" t="s">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="E17" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="F17" s="3" t="s">
-        <v>27</v>
+      <c r="F17" s="3">
+        <v>5</v>
       </c>
     </row>
     <row r="18" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B18" s="2"/>
       <c r="C18" s="1"/>
       <c r="D18" s="1" t="s">
-        <v>34</v>
+        <v>28</v>
       </c>
       <c r="E18" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="F18" s="3" t="s">
-        <v>53</v>
+        <v>27</v>
+      </c>
+      <c r="F18" s="3">
+        <v>1.5</v>
       </c>
     </row>
     <row r="19" spans="2:6" x14ac:dyDescent="0.25">
@@ -946,13 +925,13 @@
         <v>44357</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="E19" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="F19" s="3" t="s">
-        <v>53</v>
+        <v>32</v>
+      </c>
+      <c r="F19" s="3">
+        <v>1.5</v>
       </c>
     </row>
     <row r="20" spans="2:6" x14ac:dyDescent="0.25">
@@ -962,36 +941,36 @@
         <v>13</v>
       </c>
       <c r="E20" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="F20" s="3" t="s">
-        <v>26</v>
+        <v>33</v>
+      </c>
+      <c r="F20" s="3">
+        <v>2</v>
       </c>
     </row>
     <row r="21" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B21" s="2"/>
       <c r="C21" s="1"/>
       <c r="D21" s="1" t="s">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="E21" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="F21" s="3" t="s">
-        <v>29</v>
+      <c r="F21" s="3">
+        <v>4</v>
       </c>
     </row>
     <row r="22" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B22" s="2"/>
       <c r="C22" s="1"/>
       <c r="D22" s="1" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="E22" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="F22" s="3" t="s">
-        <v>41</v>
+        <v>34</v>
+      </c>
+      <c r="F22" s="3">
+        <v>2</v>
       </c>
     </row>
     <row r="23" spans="2:6" x14ac:dyDescent="0.25">
@@ -1005,23 +984,23 @@
         <v>13</v>
       </c>
       <c r="E23" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="F23" s="3" t="s">
-        <v>51</v>
+        <v>35</v>
+      </c>
+      <c r="F23" s="3">
+        <v>2.5</v>
       </c>
     </row>
     <row r="24" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B24" s="2"/>
       <c r="C24" s="1"/>
       <c r="D24" s="1" t="s">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="E24" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="F24" s="3" t="s">
-        <v>44</v>
+        <v>36</v>
+      </c>
+      <c r="F24" s="3">
+        <v>7</v>
       </c>
     </row>
     <row r="25" spans="2:6" x14ac:dyDescent="0.25">
@@ -1035,23 +1014,23 @@
         <v>13</v>
       </c>
       <c r="E25" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="F25" s="3" t="s">
-        <v>26</v>
+        <v>37</v>
+      </c>
+      <c r="F25" s="3">
+        <v>2</v>
       </c>
     </row>
     <row r="26" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B26" s="2"/>
       <c r="C26" s="1"/>
       <c r="D26" s="1" t="s">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="E26" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="F26" s="3" t="s">
-        <v>47</v>
+        <v>38</v>
+      </c>
+      <c r="F26" s="3">
+        <v>8</v>
       </c>
     </row>
     <row r="27" spans="2:6" x14ac:dyDescent="0.25">
@@ -1065,27 +1044,29 @@
         <v>13</v>
       </c>
       <c r="E27" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="F27" s="3" t="s">
-        <v>50</v>
+        <v>39</v>
+      </c>
+      <c r="F27" s="3">
+        <v>3</v>
       </c>
     </row>
     <row r="28" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B28" s="2"/>
       <c r="C28" s="1"/>
       <c r="D28" s="1" t="s">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="E28" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="F28" s="3" t="s">
-        <v>47</v>
+        <v>40</v>
+      </c>
+      <c r="F28" s="3">
+        <v>8</v>
       </c>
     </row>
     <row r="29" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B29" s="2"/>
+      <c r="B29" s="2">
+        <v>9</v>
+      </c>
       <c r="C29" s="10">
         <v>44363</v>
       </c>
@@ -1093,52 +1074,80 @@
         <v>13</v>
       </c>
       <c r="E29" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="F29" s="3" t="s">
-        <v>29</v>
+        <v>41</v>
+      </c>
+      <c r="F29" s="3">
+        <v>4</v>
       </c>
     </row>
     <row r="30" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B30" s="2"/>
       <c r="C30" s="1"/>
       <c r="D30" s="1" t="s">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="E30" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="F30" s="3" t="s">
-        <v>47</v>
+        <v>42</v>
+      </c>
+      <c r="F30" s="3">
+        <v>8</v>
       </c>
     </row>
     <row r="31" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B31" s="2"/>
-      <c r="C31" s="1"/>
-      <c r="D31" s="1"/>
-      <c r="E31" s="1"/>
-      <c r="F31" s="3"/>
+      <c r="B31" s="2">
+        <v>10</v>
+      </c>
+      <c r="C31" s="10">
+        <v>44364</v>
+      </c>
+      <c r="D31" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E31" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="F31" s="3">
+        <v>2</v>
+      </c>
     </row>
     <row r="32" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B32" s="2"/>
       <c r="C32" s="1"/>
-      <c r="D32" s="1"/>
-      <c r="E32" s="1"/>
-      <c r="F32" s="3"/>
+      <c r="D32" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="E32" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="F32" s="3">
+        <v>1.5</v>
+      </c>
     </row>
     <row r="33" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B33" s="2"/>
       <c r="C33" s="1"/>
-      <c r="D33" s="1"/>
-      <c r="E33" s="1"/>
-      <c r="F33" s="3"/>
+      <c r="D33" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E33" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="F33" s="3">
+        <v>4</v>
+      </c>
     </row>
     <row r="34" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B34" s="2"/>
       <c r="C34" s="1"/>
-      <c r="D34" s="1"/>
-      <c r="E34" s="1"/>
-      <c r="F34" s="3"/>
+      <c r="D34" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="E34" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="F34" s="3">
+        <v>5</v>
+      </c>
     </row>
     <row r="35" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B35" s="2"/>

--- a/Yuvaraj/Timesheet/Schwall_TraineeName_Timesheet_June_2021.xlsx
+++ b/Yuvaraj/Timesheet/Schwall_TraineeName_Timesheet_June_2021.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24026"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0CEEF407-08CD-40A8-A052-4686D5A67CE6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EA407DF7-37FE-4AB9-BF50-5486A1FBA4A9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="780" yWindow="780" windowWidth="14340" windowHeight="10020" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="57">
   <si>
     <t>SlNo</t>
   </si>
@@ -161,13 +161,37 @@
     <t>Learn jbpm configuration setup and gateway</t>
   </si>
   <si>
-    <t>Practice exception handling and jbpn configuration setup</t>
-  </si>
-  <si>
     <t>ArrayList concept revise</t>
   </si>
   <si>
     <t>""</t>
+  </si>
+  <si>
+    <t>jbpm</t>
+  </si>
+  <si>
+    <t>ArrayList and throw,throws exception handling</t>
+  </si>
+  <si>
+    <t>setup configuration jbpm and design the process</t>
+  </si>
+  <si>
+    <t>Practice exception handling and jbpm configuration setup</t>
+  </si>
+  <si>
+    <t>collection topics revise</t>
+  </si>
+  <si>
+    <t>camunda session</t>
+  </si>
+  <si>
+    <t>learn about RestAPI,client server architecture,SOA,SpringBoot,Framework,Web Application</t>
+  </si>
+  <si>
+    <t>Practice concepts which was learn camunda session</t>
+  </si>
+  <si>
+    <t>setup camunda configuration and run first program</t>
   </si>
 </sst>
 </file>
@@ -669,8 +693,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B1:F145"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B24" workbookViewId="0">
-      <selection activeCell="F9" sqref="F9"/>
+    <sheetView tabSelected="1" topLeftCell="A26" workbookViewId="0">
+      <selection activeCell="E36" sqref="E36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1130,7 +1154,7 @@
         <v>8</v>
       </c>
       <c r="E33" s="1" t="s">
-        <v>46</v>
+        <v>51</v>
       </c>
       <c r="F33" s="3">
         <v>4</v>
@@ -1140,56 +1164,104 @@
       <c r="B34" s="2"/>
       <c r="C34" s="1"/>
       <c r="D34" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="E34" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="F34" s="3">
         <v>5</v>
       </c>
     </row>
     <row r="35" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B35" s="2"/>
-      <c r="C35" s="1"/>
-      <c r="D35" s="1"/>
-      <c r="E35" s="1"/>
-      <c r="F35" s="3"/>
+      <c r="B35" s="2">
+        <v>11</v>
+      </c>
+      <c r="C35" s="10">
+        <v>44365</v>
+      </c>
+      <c r="D35" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E35" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="F35" s="3">
+        <v>2</v>
+      </c>
     </row>
     <row r="36" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B36" s="2"/>
       <c r="C36" s="1"/>
-      <c r="D36" s="1"/>
-      <c r="E36" s="1"/>
-      <c r="F36" s="3"/>
+      <c r="D36" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="E36" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="F36" s="3">
+        <v>1.5</v>
+      </c>
     </row>
     <row r="37" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B37" s="2"/>
       <c r="C37" s="1"/>
-      <c r="D37" s="1"/>
-      <c r="E37" s="1"/>
-      <c r="F37" s="3"/>
+      <c r="D37" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="E37" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="F37" s="3">
+        <v>5</v>
+      </c>
     </row>
     <row r="38" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B38" s="2"/>
-      <c r="C38" s="1"/>
-      <c r="D38" s="1"/>
-      <c r="E38" s="1"/>
-      <c r="F38" s="3"/>
+      <c r="B38" s="2">
+        <v>12</v>
+      </c>
+      <c r="C38" s="10">
+        <v>44366</v>
+      </c>
+      <c r="D38" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="E38" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="F38" s="3">
+        <v>6</v>
+      </c>
     </row>
     <row r="39" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B39" s="2"/>
       <c r="C39" s="1"/>
-      <c r="D39" s="1"/>
-      <c r="E39" s="1"/>
-      <c r="F39" s="3"/>
+      <c r="D39" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E39" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="F39" s="3">
+        <v>3</v>
+      </c>
     </row>
     <row r="40" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B40" s="2"/>
-      <c r="C40" s="1"/>
-      <c r="D40" s="1"/>
-      <c r="E40" s="1"/>
-      <c r="F40" s="3"/>
+      <c r="B40" s="2">
+        <v>13</v>
+      </c>
+      <c r="C40" s="10">
+        <v>44367</v>
+      </c>
+      <c r="D40" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="E40" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="F40" s="3">
+        <v>2.5</v>
+      </c>
     </row>
     <row r="41" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B41" s="2"/>

--- a/Yuvaraj/Timesheet/Schwall_TraineeName_Timesheet_June_2021.xlsx
+++ b/Yuvaraj/Timesheet/Schwall_TraineeName_Timesheet_June_2021.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24026"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EA407DF7-37FE-4AB9-BF50-5486A1FBA4A9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5C8011E1-06DA-4412-8504-45FEFB8FA355}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="780" yWindow="780" windowWidth="14340" windowHeight="10020" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="61">
   <si>
     <t>SlNo</t>
   </si>
@@ -192,6 +192,18 @@
   </si>
   <si>
     <t>setup camunda configuration and run first program</t>
+  </si>
+  <si>
+    <t>Learn about gate way,service task,user task</t>
+  </si>
+  <si>
+    <t>work with comunda task</t>
+  </si>
+  <si>
+    <t>practice own about service and user task</t>
+  </si>
+  <si>
+    <t>practice collection topics</t>
   </si>
 </sst>
 </file>
@@ -693,8 +705,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B1:F145"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A26" workbookViewId="0">
-      <selection activeCell="E36" sqref="E36"/>
+    <sheetView tabSelected="1" topLeftCell="A33" workbookViewId="0">
+      <selection activeCell="E48" sqref="E48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1264,32 +1276,60 @@
       </c>
     </row>
     <row r="41" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B41" s="2"/>
-      <c r="C41" s="1"/>
-      <c r="D41" s="1"/>
-      <c r="E41" s="1"/>
-      <c r="F41" s="3"/>
+      <c r="B41" s="2">
+        <v>14</v>
+      </c>
+      <c r="C41" s="10">
+        <v>44368</v>
+      </c>
+      <c r="D41" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="E41" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="F41" s="3">
+        <v>1.5</v>
+      </c>
     </row>
     <row r="42" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B42" s="2"/>
       <c r="C42" s="1"/>
-      <c r="D42" s="1"/>
-      <c r="E42" s="1"/>
-      <c r="F42" s="3"/>
+      <c r="D42" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E42" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="F42" s="3">
+        <v>1</v>
+      </c>
     </row>
     <row r="43" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B43" s="2"/>
       <c r="C43" s="1"/>
-      <c r="D43" s="1"/>
-      <c r="E43" s="1"/>
-      <c r="F43" s="3"/>
+      <c r="D43" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="E43" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="F43" s="3">
+        <v>3</v>
+      </c>
     </row>
     <row r="44" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B44" s="2"/>
       <c r="C44" s="1"/>
-      <c r="D44" s="1"/>
-      <c r="E44" s="1"/>
-      <c r="F44" s="3"/>
+      <c r="D44" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="E44" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="F44" s="3">
+        <v>4</v>
+      </c>
     </row>
     <row r="45" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B45" s="2"/>

--- a/Yuvaraj/Timesheet/Schwall_TraineeName_Timesheet_June_2021.xlsx
+++ b/Yuvaraj/Timesheet/Schwall_TraineeName_Timesheet_June_2021.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24026"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5C8011E1-06DA-4412-8504-45FEFB8FA355}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{33D481B4-7826-4BB1-9D03-29F02AA6CF23}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="780" yWindow="780" windowWidth="14340" windowHeight="10020" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Week1" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="61">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="65">
   <si>
     <t>SlNo</t>
   </si>
@@ -204,6 +204,18 @@
   </si>
   <si>
     <t>practice collection topics</t>
+  </si>
+  <si>
+    <t>java task</t>
+  </si>
+  <si>
+    <t>camunda script task andsend task</t>
+  </si>
+  <si>
+    <t>learn about collection topics</t>
+  </si>
+  <si>
+    <t>learn about send task and script task</t>
   </si>
 </sst>
 </file>
@@ -705,8 +717,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B1:F145"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A33" workbookViewId="0">
-      <selection activeCell="E48" sqref="E48"/>
+    <sheetView tabSelected="1" topLeftCell="A29" workbookViewId="0">
+      <selection activeCell="E43" sqref="E43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1332,32 +1344,60 @@
       </c>
     </row>
     <row r="45" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B45" s="2"/>
-      <c r="C45" s="1"/>
-      <c r="D45" s="1"/>
-      <c r="E45" s="1"/>
-      <c r="F45" s="3"/>
+      <c r="B45" s="2">
+        <v>15</v>
+      </c>
+      <c r="C45" s="10">
+        <v>44370</v>
+      </c>
+      <c r="D45" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="E45" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="F45" s="3">
+        <v>1.5</v>
+      </c>
     </row>
     <row r="46" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B46" s="2"/>
       <c r="C46" s="1"/>
-      <c r="D46" s="1"/>
-      <c r="E46" s="1"/>
-      <c r="F46" s="3"/>
+      <c r="D46" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E46" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="F46" s="3">
+        <v>2</v>
+      </c>
     </row>
     <row r="47" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B47" s="2"/>
       <c r="C47" s="1"/>
-      <c r="D47" s="1"/>
-      <c r="E47" s="1"/>
-      <c r="F47" s="3"/>
+      <c r="D47" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="E47" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="F47" s="3">
+        <v>4</v>
+      </c>
     </row>
     <row r="48" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B48" s="2"/>
       <c r="C48" s="1"/>
-      <c r="D48" s="1"/>
-      <c r="E48" s="1"/>
-      <c r="F48" s="3"/>
+      <c r="D48" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="E48" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="F48" s="3">
+        <v>2</v>
+      </c>
     </row>
     <row r="49" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B49" s="2"/>

--- a/Yuvaraj/Timesheet/Schwall_TraineeName_Timesheet_June_2021.xlsx
+++ b/Yuvaraj/Timesheet/Schwall_TraineeName_Timesheet_June_2021.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24026"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{33D481B4-7826-4BB1-9D03-29F02AA6CF23}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E4036B5D-5F2C-4EB9-87D4-A6F4F0C2DC82}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="65">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="102" uniqueCount="66">
   <si>
     <t>SlNo</t>
   </si>
@@ -216,6 +216,9 @@
   </si>
   <si>
     <t>learn about send task and script task</t>
+  </si>
+  <si>
+    <t>java session recording recall</t>
   </si>
 </sst>
 </file>
@@ -718,7 +721,7 @@
   <dimension ref="B1:F145"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A29" workbookViewId="0">
-      <selection activeCell="E43" sqref="E43"/>
+      <selection activeCell="H48" sqref="H48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1403,8 +1406,12 @@
       <c r="B49" s="2"/>
       <c r="C49" s="1"/>
       <c r="D49" s="1"/>
-      <c r="E49" s="1"/>
-      <c r="F49" s="3"/>
+      <c r="E49" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="F49" s="3">
+        <v>2</v>
+      </c>
     </row>
     <row r="50" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B50" s="2"/>

--- a/Yuvaraj/Timesheet/Schwall_TraineeName_Timesheet_June_2021.xlsx
+++ b/Yuvaraj/Timesheet/Schwall_TraineeName_Timesheet_June_2021.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24026"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E4036B5D-5F2C-4EB9-87D4-A6F4F0C2DC82}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AE63B478-5E8A-4C0B-A40D-30167C1C514B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="102" uniqueCount="66">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112" uniqueCount="72">
   <si>
     <t>SlNo</t>
   </si>
@@ -219,6 +219,24 @@
   </si>
   <si>
     <t>java session recording recall</t>
+  </si>
+  <si>
+    <t>learn about Sub process</t>
+  </si>
+  <si>
+    <t>java recall</t>
+  </si>
+  <si>
+    <t>watching recorded video</t>
+  </si>
+  <si>
+    <t>practice embadded subprocess, call activity</t>
+  </si>
+  <si>
+    <t>Comparable,sorted array</t>
+  </si>
+  <si>
+    <t>Practice comparable, tree set and collection topics</t>
   </si>
 </sst>
 </file>
@@ -720,8 +738,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B1:F145"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A29" workbookViewId="0">
-      <selection activeCell="H48" sqref="H48"/>
+    <sheetView tabSelected="1" topLeftCell="A43" workbookViewId="0">
+      <selection activeCell="F56" sqref="F56"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1414,39 +1432,73 @@
       </c>
     </row>
     <row r="50" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B50" s="2"/>
-      <c r="C50" s="1"/>
-      <c r="D50" s="1"/>
-      <c r="E50" s="1"/>
-      <c r="F50" s="3"/>
+      <c r="B50" s="2">
+        <v>16</v>
+      </c>
+      <c r="C50" s="10">
+        <v>44371</v>
+      </c>
+      <c r="D50" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="E50" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="F50" s="3">
+        <v>1.5</v>
+      </c>
     </row>
     <row r="51" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B51" s="2"/>
       <c r="C51" s="1"/>
-      <c r="D51" s="1"/>
-      <c r="E51" s="1"/>
-      <c r="F51" s="3"/>
+      <c r="D51" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E51" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="F51" s="3">
+        <v>2</v>
+      </c>
     </row>
     <row r="52" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B52" s="2"/>
       <c r="C52" s="1"/>
-      <c r="D52" s="1"/>
-      <c r="E52" s="1"/>
-      <c r="F52" s="3"/>
+      <c r="D52" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="E52" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="F52" s="3">
+        <v>4</v>
+      </c>
     </row>
     <row r="53" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B53" s="2"/>
       <c r="C53" s="1"/>
-      <c r="D53" s="1"/>
-      <c r="E53" s="1"/>
-      <c r="F53" s="3"/>
+      <c r="D53" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="E53" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="F53" s="3">
+        <v>4</v>
+      </c>
     </row>
     <row r="54" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B54" s="2"/>
       <c r="C54" s="1"/>
-      <c r="D54" s="1"/>
-      <c r="E54" s="1"/>
-      <c r="F54" s="3"/>
+      <c r="D54" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="E54" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="F54" s="3">
+        <v>2</v>
+      </c>
     </row>
     <row r="55" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B55" s="2"/>

--- a/Yuvaraj/Timesheet/Schwall_TraineeName_Timesheet_June_2021.xlsx
+++ b/Yuvaraj/Timesheet/Schwall_TraineeName_Timesheet_June_2021.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24026"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AE63B478-5E8A-4C0B-A40D-30167C1C514B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8A4138ED-2D9B-4E6B-A3AD-1FA4E8A6E0D4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112" uniqueCount="72">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="124" uniqueCount="78">
   <si>
     <t>SlNo</t>
   </si>
@@ -237,6 +237,24 @@
   </si>
   <si>
     <t>Practice comparable, tree set and collection topics</t>
+  </si>
+  <si>
+    <t>camunda session recall</t>
+  </si>
+  <si>
+    <t>java practice</t>
+  </si>
+  <si>
+    <t>camunda proctice</t>
+  </si>
+  <si>
+    <t>Check wethear javascropt engine null or not and practice the task which was learnt by today session</t>
+  </si>
+  <si>
+    <t>learn treeset and collection topics</t>
+  </si>
+  <si>
+    <t>learn about parllel gateway and subprocess</t>
   </si>
 </sst>
 </file>
@@ -739,7 +757,7 @@
   <dimension ref="B1:F145"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A43" workbookViewId="0">
-      <selection activeCell="F56" sqref="F56"/>
+      <selection activeCell="E62" sqref="E62"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1501,46 +1519,86 @@
       </c>
     </row>
     <row r="55" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B55" s="2"/>
-      <c r="C55" s="1"/>
-      <c r="D55" s="1"/>
-      <c r="E55" s="1"/>
-      <c r="F55" s="3"/>
+      <c r="B55" s="2">
+        <v>17</v>
+      </c>
+      <c r="C55" s="10">
+        <v>44372</v>
+      </c>
+      <c r="D55" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="E55" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="F55" s="3">
+        <v>1.5</v>
+      </c>
     </row>
     <row r="56" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B56" s="2"/>
       <c r="C56" s="1"/>
-      <c r="D56" s="1"/>
-      <c r="E56" s="1"/>
-      <c r="F56" s="3"/>
+      <c r="D56" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E56" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="F56" s="3">
+        <v>2</v>
+      </c>
     </row>
     <row r="57" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B57" s="2"/>
       <c r="C57" s="1"/>
-      <c r="D57" s="1"/>
-      <c r="E57" s="1"/>
-      <c r="F57" s="3"/>
+      <c r="D57" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="E57" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="F57" s="3">
+        <v>0.5</v>
+      </c>
     </row>
     <row r="58" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B58" s="2"/>
       <c r="C58" s="1"/>
-      <c r="D58" s="1"/>
-      <c r="E58" s="1"/>
-      <c r="F58" s="3"/>
+      <c r="D58" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="E58" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="F58" s="3">
+        <v>4</v>
+      </c>
     </row>
     <row r="59" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B59" s="2"/>
       <c r="C59" s="1"/>
-      <c r="D59" s="1"/>
-      <c r="E59" s="1"/>
-      <c r="F59" s="3"/>
+      <c r="D59" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="E59" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="F59" s="3">
+        <v>2</v>
+      </c>
     </row>
     <row r="60" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B60" s="2"/>
       <c r="C60" s="1"/>
-      <c r="D60" s="1"/>
-      <c r="E60" s="1"/>
-      <c r="F60" s="3"/>
+      <c r="D60" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="E60" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="F60" s="3">
+        <v>3</v>
+      </c>
     </row>
     <row r="61" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B61" s="2"/>

--- a/Yuvaraj/Timesheet/Schwall_TraineeName_Timesheet_June_2021.xlsx
+++ b/Yuvaraj/Timesheet/Schwall_TraineeName_Timesheet_June_2021.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24026"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8A4138ED-2D9B-4E6B-A3AD-1FA4E8A6E0D4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EFBFCAC7-2435-4459-B898-3E52922D1976}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="780" yWindow="780" windowWidth="14340" windowHeight="10020" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Week1" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="124" uniqueCount="78">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="130" uniqueCount="83">
   <si>
     <t>SlNo</t>
   </si>
@@ -248,13 +248,28 @@
     <t>camunda proctice</t>
   </si>
   <si>
-    <t>Check wethear javascropt engine null or not and practice the task which was learnt by today session</t>
-  </si>
-  <si>
     <t>learn treeset and collection topics</t>
   </si>
   <si>
     <t>learn about parllel gateway and subprocess</t>
+  </si>
+  <si>
+    <t>Check wethear javascript engine null or not and practice the task which was learnt by today session</t>
+  </si>
+  <si>
+    <t>Camunda session</t>
+  </si>
+  <si>
+    <t>Practice camunda task</t>
+  </si>
+  <si>
+    <t>Task</t>
+  </si>
+  <si>
+    <t>Learn about Rest Api</t>
+  </si>
+  <si>
+    <t>Learn Intermediate event,boundary event and interruption,non-interruption event</t>
   </si>
 </sst>
 </file>
@@ -756,8 +771,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B1:F145"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A43" workbookViewId="0">
-      <selection activeCell="E62" sqref="E62"/>
+    <sheetView tabSelected="1" topLeftCell="A49" workbookViewId="0">
+      <selection activeCell="E63" sqref="E63"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1529,7 +1544,7 @@
         <v>53</v>
       </c>
       <c r="E55" s="1" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="F55" s="3">
         <v>1.5</v>
@@ -1542,7 +1557,7 @@
         <v>13</v>
       </c>
       <c r="E56" s="1" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="F56" s="3">
         <v>2</v>
@@ -1581,7 +1596,7 @@
         <v>74</v>
       </c>
       <c r="E59" s="1" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="F59" s="3">
         <v>2</v>
@@ -1601,25 +1616,47 @@
       </c>
     </row>
     <row r="61" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B61" s="2"/>
-      <c r="C61" s="1"/>
-      <c r="D61" s="1"/>
-      <c r="E61" s="1"/>
-      <c r="F61" s="3"/>
+      <c r="B61" s="2">
+        <v>18</v>
+      </c>
+      <c r="C61" s="10">
+        <v>44373</v>
+      </c>
+      <c r="D61" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="E61" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="F61" s="3">
+        <v>3</v>
+      </c>
     </row>
     <row r="62" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B62" s="2"/>
       <c r="C62" s="1"/>
-      <c r="D62" s="1"/>
-      <c r="E62" s="1"/>
-      <c r="F62" s="3"/>
+      <c r="D62" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="E62" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="F62" s="3">
+        <v>3</v>
+      </c>
     </row>
     <row r="63" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B63" s="2"/>
       <c r="C63" s="1"/>
-      <c r="D63" s="1"/>
-      <c r="E63" s="1"/>
-      <c r="F63" s="3"/>
+      <c r="D63" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="E63" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="F63" s="3">
+        <v>4</v>
+      </c>
     </row>
     <row r="64" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B64" s="2"/>

--- a/Yuvaraj/Timesheet/Schwall_TraineeName_Timesheet_June_2021.xlsx
+++ b/Yuvaraj/Timesheet/Schwall_TraineeName_Timesheet_June_2021.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24026"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EFBFCAC7-2435-4459-B898-3E52922D1976}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B64EFDF9-7E73-4E47-8960-98750AFE687F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="780" yWindow="780" windowWidth="14340" windowHeight="10020" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="130" uniqueCount="83">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="142" uniqueCount="93">
   <si>
     <t>SlNo</t>
   </si>
@@ -270,6 +270,36 @@
   </si>
   <si>
     <t>Learn Intermediate event,boundary event and interruption,non-interruption event</t>
+  </si>
+  <si>
+    <t>General meeting</t>
+  </si>
+  <si>
+    <t>Discussion</t>
+  </si>
+  <si>
+    <t>Video Preperation</t>
+  </si>
+  <si>
+    <t>Camunda Task</t>
+  </si>
+  <si>
+    <t>Variable get and set</t>
+  </si>
+  <si>
+    <t>Camunda Flow design</t>
+  </si>
+  <si>
+    <t>Meeting with bharani sir</t>
+  </si>
+  <si>
+    <t>Discussed with friends</t>
+  </si>
+  <si>
+    <t>Workflow Explanation video</t>
+  </si>
+  <si>
+    <t>get and set variables</t>
   </si>
 </sst>
 </file>
@@ -771,8 +801,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B1:F145"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A49" workbookViewId="0">
-      <selection activeCell="E63" sqref="E63"/>
+    <sheetView tabSelected="1" topLeftCell="A58" workbookViewId="0">
+      <selection activeCell="F65" sqref="F65"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1659,46 +1689,86 @@
       </c>
     </row>
     <row r="64" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B64" s="2"/>
-      <c r="C64" s="1"/>
-      <c r="D64" s="1"/>
-      <c r="E64" s="1"/>
-      <c r="F64" s="3"/>
+      <c r="B64" s="2">
+        <v>19</v>
+      </c>
+      <c r="C64" s="10">
+        <v>44375</v>
+      </c>
+      <c r="D64" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="E64" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="F64" s="3">
+        <v>1</v>
+      </c>
     </row>
     <row r="65" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B65" s="2"/>
       <c r="C65" s="1"/>
-      <c r="D65" s="1"/>
-      <c r="E65" s="1"/>
-      <c r="F65" s="3"/>
+      <c r="D65" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E65" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="F65" s="3">
+        <v>3</v>
+      </c>
     </row>
     <row r="66" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B66" s="2"/>
       <c r="C66" s="1"/>
-      <c r="D66" s="1"/>
-      <c r="E66" s="1"/>
-      <c r="F66" s="3"/>
+      <c r="D66" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="E66" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="F66" s="3">
+        <v>0.5</v>
+      </c>
     </row>
     <row r="67" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B67" s="2"/>
       <c r="C67" s="1"/>
-      <c r="D67" s="1"/>
-      <c r="E67" s="1"/>
-      <c r="F67" s="3"/>
+      <c r="D67" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="E67" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="F67" s="3">
+        <v>3</v>
+      </c>
     </row>
     <row r="68" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B68" s="2"/>
       <c r="C68" s="1"/>
-      <c r="D68" s="1"/>
-      <c r="E68" s="1"/>
-      <c r="F68" s="3"/>
+      <c r="D68" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="E68" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="F68" s="3">
+        <v>1</v>
+      </c>
     </row>
     <row r="69" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B69" s="2"/>
       <c r="C69" s="1"/>
-      <c r="D69" s="1"/>
-      <c r="E69" s="1"/>
-      <c r="F69" s="3"/>
+      <c r="D69" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="E69" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="F69" s="3">
+        <v>3</v>
+      </c>
     </row>
     <row r="70" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B70" s="2"/>

--- a/Yuvaraj/Timesheet/Schwall_TraineeName_Timesheet_June_2021.xlsx
+++ b/Yuvaraj/Timesheet/Schwall_TraineeName_Timesheet_June_2021.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24026"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B64EFDF9-7E73-4E47-8960-98750AFE687F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9AD21F1A-33F2-4B23-ADB1-F5FC39ECE678}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="780" yWindow="780" windowWidth="14340" windowHeight="10020" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="142" uniqueCount="93">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="150" uniqueCount="97">
   <si>
     <t>SlNo</t>
   </si>
@@ -300,6 +300,18 @@
   </si>
   <si>
     <t>get and set variables</t>
+  </si>
+  <si>
+    <t>Recall the session</t>
+  </si>
+  <si>
+    <t>Revise  rest api and client server architecher</t>
+  </si>
+  <si>
+    <t>Practice servlet topics</t>
+  </si>
+  <si>
+    <t>Watching recording session</t>
   </si>
 </sst>
 </file>
@@ -802,7 +814,7 @@
   <dimension ref="B1:F145"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A58" workbookViewId="0">
-      <selection activeCell="F65" sqref="F65"/>
+      <selection activeCell="E73" sqref="E73"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1771,32 +1783,60 @@
       </c>
     </row>
     <row r="70" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B70" s="2"/>
-      <c r="C70" s="1"/>
-      <c r="D70" s="1"/>
-      <c r="E70" s="1"/>
-      <c r="F70" s="3"/>
+      <c r="B70" s="2">
+        <v>20</v>
+      </c>
+      <c r="C70" s="10">
+        <v>44376</v>
+      </c>
+      <c r="D70" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="E70" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="F70" s="3">
+        <v>1.5</v>
+      </c>
     </row>
     <row r="71" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B71" s="2"/>
       <c r="C71" s="1"/>
-      <c r="D71" s="1"/>
-      <c r="E71" s="1"/>
-      <c r="F71" s="3"/>
+      <c r="D71" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E71" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="F71" s="3">
+        <v>4</v>
+      </c>
     </row>
     <row r="72" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B72" s="2"/>
       <c r="C72" s="1"/>
-      <c r="D72" s="1"/>
-      <c r="E72" s="1"/>
-      <c r="F72" s="3"/>
+      <c r="D72" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="E72" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="F72" s="3">
+        <v>2</v>
+      </c>
     </row>
     <row r="73" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B73" s="2"/>
       <c r="C73" s="1"/>
-      <c r="D73" s="1"/>
-      <c r="E73" s="1"/>
-      <c r="F73" s="3"/>
+      <c r="D73" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="E73" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="F73" s="3">
+        <v>1</v>
+      </c>
     </row>
     <row r="74" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B74" s="2"/>

--- a/Yuvaraj/Timesheet/Schwall_TraineeName_Timesheet_June_2021.xlsx
+++ b/Yuvaraj/Timesheet/Schwall_TraineeName_Timesheet_June_2021.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24026"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9AD21F1A-33F2-4B23-ADB1-F5FC39ECE678}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{562A0727-22A7-4D25-B773-866725769268}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="780" yWindow="780" windowWidth="14340" windowHeight="10020" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="150" uniqueCount="97">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="162" uniqueCount="103">
   <si>
     <t>SlNo</t>
   </si>
@@ -312,6 +312,24 @@
   </si>
   <si>
     <t>Watching recording session</t>
+  </si>
+  <si>
+    <t>camunda practice</t>
+  </si>
+  <si>
+    <t>Learn About runtime services</t>
+  </si>
+  <si>
+    <t>servlet topics</t>
+  </si>
+  <si>
+    <t>spring mvc</t>
+  </si>
+  <si>
+    <t>Runtime services task</t>
+  </si>
+  <si>
+    <t>spring ioc,oracle database</t>
   </si>
 </sst>
 </file>
@@ -813,8 +831,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B1:F145"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A58" workbookViewId="0">
-      <selection activeCell="E73" sqref="E73"/>
+    <sheetView tabSelected="1" topLeftCell="A66" workbookViewId="0">
+      <selection activeCell="E82" sqref="E82"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1839,46 +1857,86 @@
       </c>
     </row>
     <row r="74" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B74" s="2"/>
-      <c r="C74" s="1"/>
-      <c r="D74" s="1"/>
-      <c r="E74" s="1"/>
-      <c r="F74" s="3"/>
+      <c r="B74" s="2">
+        <v>21</v>
+      </c>
+      <c r="C74" s="10">
+        <v>44377</v>
+      </c>
+      <c r="D74" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="E74" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="F74" s="3">
+        <v>1.5</v>
+      </c>
     </row>
     <row r="75" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B75" s="2"/>
       <c r="C75" s="1"/>
-      <c r="D75" s="1"/>
-      <c r="E75" s="1"/>
-      <c r="F75" s="3"/>
+      <c r="D75" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E75" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="F75" s="3">
+        <v>2</v>
+      </c>
     </row>
     <row r="76" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B76" s="2"/>
       <c r="C76" s="1"/>
-      <c r="D76" s="1"/>
-      <c r="E76" s="1"/>
-      <c r="F76" s="3"/>
+      <c r="D76" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="E76" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="F76" s="3">
+        <v>1</v>
+      </c>
     </row>
     <row r="77" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B77" s="2"/>
       <c r="C77" s="1"/>
-      <c r="D77" s="1"/>
-      <c r="E77" s="1"/>
-      <c r="F77" s="3"/>
+      <c r="D77" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="E77" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="F77" s="3">
+        <v>2</v>
+      </c>
     </row>
     <row r="78" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B78" s="2"/>
       <c r="C78" s="1"/>
-      <c r="D78" s="1"/>
-      <c r="E78" s="1"/>
-      <c r="F78" s="3"/>
+      <c r="D78" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="E78" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="F78" s="3">
+        <v>2</v>
+      </c>
     </row>
     <row r="79" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B79" s="2"/>
       <c r="C79" s="1"/>
-      <c r="D79" s="1"/>
-      <c r="E79" s="1"/>
-      <c r="F79" s="3"/>
+      <c r="D79" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="E79" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="F79" s="3">
+        <v>2</v>
+      </c>
     </row>
     <row r="80" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B80" s="2"/>

--- a/Yuvaraj/Timesheet/Schwall_TraineeName_Timesheet_June_2021.xlsx
+++ b/Yuvaraj/Timesheet/Schwall_TraineeName_Timesheet_June_2021.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24026"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24228"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{562A0727-22A7-4D25-B773-866725769268}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F555D096-DC30-45AA-A288-33E057C497B8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="780" yWindow="780" windowWidth="14340" windowHeight="10020" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Week1" sheetId="1" r:id="rId1"/>
@@ -831,7 +831,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B1:F145"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A66" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
       <selection activeCell="E82" sqref="E82"/>
     </sheetView>
   </sheetViews>
